--- a/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/8/flowCurve.xlsx
+++ b/SOO_results/DP1000_room_Swift_NDBR50_curve2/iteration/8/flowCurve.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>567.5698611585361</v>
+        <v>574.9083776461985</v>
       </c>
       <c r="C2" t="n">
-        <v>567569861.1585361</v>
+        <v>574908377.6461985</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.002</v>
       </c>
       <c r="B3" t="n">
-        <v>860.6693579833636</v>
+        <v>719.4766667263348</v>
       </c>
       <c r="C3" t="n">
-        <v>860669357.9833636</v>
+        <v>719476666.7263348</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>0.004</v>
       </c>
       <c r="B4" t="n">
-        <v>943.130566033468</v>
+        <v>783.7588268532618</v>
       </c>
       <c r="C4" t="n">
-        <v>943130566.033468</v>
+        <v>783758826.8532618</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>0.006</v>
       </c>
       <c r="B5" t="n">
-        <v>995.7904180532857</v>
+        <v>827.2042942594758</v>
       </c>
       <c r="C5" t="n">
-        <v>995790418.0532857</v>
+        <v>827204294.2594758</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>0.008</v>
       </c>
       <c r="B6" t="n">
-        <v>1035.165389148805</v>
+        <v>860.525328708861</v>
       </c>
       <c r="C6" t="n">
-        <v>1035165389.148805</v>
+        <v>860525328.708861</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.01</v>
       </c>
       <c r="B7" t="n">
-        <v>1066.880113629448</v>
+        <v>887.7674515721683</v>
       </c>
       <c r="C7" t="n">
-        <v>1066880113.629448</v>
+        <v>887767451.5721682</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>1093.567968474062</v>
+        <v>910.9225059454182</v>
       </c>
       <c r="C8" t="n">
-        <v>1093567968.474062</v>
+        <v>910922505.9454181</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>0.014</v>
       </c>
       <c r="B9" t="n">
-        <v>1116.685231169859</v>
+        <v>931.1264960166409</v>
       </c>
       <c r="C9" t="n">
-        <v>1116685231.169859</v>
+        <v>931126496.0166409</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>0.016</v>
       </c>
       <c r="B10" t="n">
-        <v>1137.126160470352</v>
+        <v>949.0919243263662</v>
       </c>
       <c r="C10" t="n">
-        <v>1137126160.470352</v>
+        <v>949091924.3263662</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>0.018</v>
       </c>
       <c r="B11" t="n">
-        <v>1155.481224913081</v>
+        <v>965.2966213740523</v>
       </c>
       <c r="C11" t="n">
-        <v>1155481224.913081</v>
+        <v>965296621.3740523</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>0.02</v>
       </c>
       <c r="B12" t="n">
-        <v>1172.16170932155</v>
+        <v>980.0774286948418</v>
       </c>
       <c r="C12" t="n">
-        <v>1172161709.32155</v>
+        <v>980077428.6948419</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>0.022</v>
       </c>
       <c r="B13" t="n">
-        <v>1187.46610713788</v>
+        <v>993.6811615670434</v>
       </c>
       <c r="C13" t="n">
-        <v>1187466107.13788</v>
+        <v>993681161.5670434</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>0.024</v>
       </c>
       <c r="B14" t="n">
-        <v>1201.618234962291</v>
+        <v>1006.294343702892</v>
       </c>
       <c r="C14" t="n">
-        <v>1201618234.962291</v>
+        <v>1006294343.702892</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>0.026</v>
       </c>
       <c r="B15" t="n">
-        <v>1214.790428627786</v>
+        <v>1018.061541331356</v>
       </c>
       <c r="C15" t="n">
-        <v>1214790428.627786</v>
+        <v>1018061541.331356</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>0.028</v>
       </c>
       <c r="B16" t="n">
-        <v>1227.118339724509</v>
+        <v>1029.097185108586</v>
       </c>
       <c r="C16" t="n">
-        <v>1227118339.724509</v>
+        <v>1029097185.108586</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>0.03</v>
       </c>
       <c r="B17" t="n">
-        <v>1238.710746972564</v>
+        <v>1039.493480546429</v>
       </c>
       <c r="C17" t="n">
-        <v>1238710746.972564</v>
+        <v>1039493480.546429</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>0.032</v>
       </c>
       <c r="B18" t="n">
-        <v>1249.656276918359</v>
+        <v>1049.325868805516</v>
       </c>
       <c r="C18" t="n">
-        <v>1249656276.918359</v>
+        <v>1049325868.805516</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>0.034</v>
       </c>
       <c r="B19" t="n">
-        <v>1260.028136718286</v>
+        <v>1058.656898193252</v>
       </c>
       <c r="C19" t="n">
-        <v>1260028136.718286</v>
+        <v>1058656898.193252</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>0.036</v>
       </c>
       <c r="B20" t="n">
-        <v>1269.887527482694</v>
+        <v>1067.539032838939</v>
       </c>
       <c r="C20" t="n">
-        <v>1269887527.482694</v>
+        <v>1067539032.838939</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>0.038</v>
       </c>
       <c r="B21" t="n">
-        <v>1279.286157731976</v>
+        <v>1076.016731702289</v>
       </c>
       <c r="C21" t="n">
-        <v>1279286157.731976</v>
+        <v>1076016731.702289</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>0.04</v>
       </c>
       <c r="B22" t="n">
-        <v>1288.268128351949</v>
+        <v>1084.128014980982</v>
       </c>
       <c r="C22" t="n">
-        <v>1288268128.351949</v>
+        <v>1084128014.980982</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>0.042</v>
       </c>
       <c r="B23" t="n">
-        <v>1296.871369298336</v>
+        <v>1091.905663015462</v>
       </c>
       <c r="C23" t="n">
-        <v>1296871369.298336</v>
+        <v>1091905663.015462</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>0.044</v>
       </c>
       <c r="B24" t="n">
-        <v>1305.128750599013</v>
+        <v>1099.378146907891</v>
       </c>
       <c r="C24" t="n">
-        <v>1305128750.599013</v>
+        <v>1099378146.907891</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>0.046</v>
       </c>
       <c r="B25" t="n">
-        <v>1313.068952724756</v>
+        <v>1106.570360086074</v>
       </c>
       <c r="C25" t="n">
-        <v>1313068952.724756</v>
+        <v>1106570360.086074</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>0.048</v>
       </c>
       <c r="B26" t="n">
-        <v>1320.717156494708</v>
+        <v>1113.504200005254</v>
       </c>
       <c r="C26" t="n">
-        <v>1320717156.494708</v>
+        <v>1113504200.005254</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>0.05</v>
       </c>
       <c r="B27" t="n">
-        <v>1328.095595791004</v>
+        <v>1120.199035520616</v>
       </c>
       <c r="C27" t="n">
-        <v>1328095595.791004</v>
+        <v>1120199035.520616</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>0.052</v>
       </c>
       <c r="B28" t="n">
-        <v>1335.224004685748</v>
+        <v>1126.672085981372</v>
       </c>
       <c r="C28" t="n">
-        <v>1335224004.685749</v>
+        <v>1126672085.981372</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>0.054</v>
       </c>
       <c r="B29" t="n">
-        <v>1342.119982382879</v>
+        <v>1132.938731406541</v>
       </c>
       <c r="C29" t="n">
-        <v>1342119982.382879</v>
+        <v>1132938731.406541</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>0.056</v>
       </c>
       <c r="B30" t="n">
-        <v>1348.799293526238</v>
+        <v>1139.012768310157</v>
       </c>
       <c r="C30" t="n">
-        <v>1348799293.526237</v>
+        <v>1139012768.310157</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>0.058</v>
       </c>
       <c r="B31" t="n">
-        <v>1355.276117191368</v>
+        <v>1144.906622263379</v>
       </c>
       <c r="C31" t="n">
-        <v>1355276117.191368</v>
+        <v>1144906622.263379</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>0.06</v>
       </c>
       <c r="B32" t="n">
-        <v>1361.563254775257</v>
+        <v>1150.631525721567</v>
       </c>
       <c r="C32" t="n">
-        <v>1361563254.775257</v>
+        <v>1150631525.721567</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>0.062</v>
       </c>
       <c r="B33" t="n">
-        <v>1367.672304696285</v>
+        <v>1156.197667739988</v>
       </c>
       <c r="C33" t="n">
-        <v>1367672304.696285</v>
+        <v>1156197667.739988</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>0.064</v>
       </c>
       <c r="B34" t="n">
-        <v>1373.613810090267</v>
+        <v>1161.614320769413</v>
       </c>
       <c r="C34" t="n">
-        <v>1373613810.090267</v>
+        <v>1161614320.769413</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>0.066</v>
       </c>
       <c r="B35" t="n">
-        <v>1379.39738438037</v>
+        <v>1166.889948634636</v>
       </c>
       <c r="C35" t="n">
-        <v>1379397384.38037</v>
+        <v>1166889948.634636</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>0.068</v>
       </c>
       <c r="B36" t="n">
-        <v>1385.031818598065</v>
+        <v>1172.032298964367</v>
       </c>
       <c r="C36" t="n">
-        <v>1385031818.598065</v>
+        <v>1172032298.964367</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1390.525173560036</v>
+        <v>1177.048482695333</v>
       </c>
       <c r="C37" t="n">
-        <v>1390525173.560036</v>
+        <v>1177048482.695333</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>0.07199999999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1395.884859404957</v>
+        <v>1181.945042769843</v>
       </c>
       <c r="C38" t="n">
-        <v>1395884859.404957</v>
+        <v>1181945042.769843</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>0.074</v>
       </c>
       <c r="B39" t="n">
-        <v>1401.117704522736</v>
+        <v>1186.728013750307</v>
       </c>
       <c r="C39" t="n">
-        <v>1401117704.522736</v>
+        <v>1186728013.750307</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>0.076</v>
       </c>
       <c r="B40" t="n">
-        <v>1406.230015536381</v>
+        <v>1191.402973760838</v>
       </c>
       <c r="C40" t="n">
-        <v>1406230015.536381</v>
+        <v>1191402973.760838</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>0.078</v>
       </c>
       <c r="B41" t="n">
-        <v>1411.227629700409</v>
+        <v>1195.975089916388</v>
       </c>
       <c r="C41" t="n">
-        <v>1411227629.700409</v>
+        <v>1195975089.916388</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>0.08</v>
       </c>
       <c r="B42" t="n">
-        <v>1416.115960842497</v>
+        <v>1200.449158199485</v>
       </c>
       <c r="C42" t="n">
-        <v>1416115960.842497</v>
+        <v>1200449158.199485</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>0.082</v>
       </c>
       <c r="B43" t="n">
-        <v>1420.900039783952</v>
+        <v>1204.829638583018</v>
       </c>
       <c r="C43" t="n">
-        <v>1420900039.783952</v>
+        <v>1204829638.583018</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B44" t="n">
-        <v>1425.584550019712</v>
+        <v>1209.120686066276</v>
       </c>
       <c r="C44" t="n">
-        <v>1425584550.019712</v>
+        <v>1209120686.066276</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>0.08599999999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1430.173859312408</v>
+        <v>1213.326178184367</v>
       </c>
       <c r="C45" t="n">
-        <v>1430173859.312408</v>
+        <v>1213326178.184367</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>0.08799999999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1434.672047751651</v>
+        <v>1217.449739463318</v>
       </c>
       <c r="C46" t="n">
-        <v>1434672047.751651</v>
+        <v>1217449739.463318</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>0.09</v>
       </c>
       <c r="B47" t="n">
-        <v>1439.082932744642</v>
+        <v>1221.494763220723</v>
       </c>
       <c r="C47" t="n">
-        <v>1439082932.744642</v>
+        <v>1221494763.220723</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>0.092</v>
       </c>
       <c r="B48" t="n">
-        <v>1443.410091333833</v>
+        <v>1225.464431051878</v>
       </c>
       <c r="C48" t="n">
-        <v>1443410091.333833</v>
+        <v>1225464431.051878</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>0.094</v>
       </c>
       <c r="B49" t="n">
-        <v>1447.656880178914</v>
+        <v>1229.361730291438</v>
       </c>
       <c r="C49" t="n">
-        <v>1447656880.178914</v>
+        <v>1229361730.291438</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>0.096</v>
       </c>
       <c r="B50" t="n">
-        <v>1451.826453491642</v>
+        <v>1233.189469698971</v>
       </c>
       <c r="C50" t="n">
-        <v>1451826453.491642</v>
+        <v>1233189469.698971</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>0.098</v>
       </c>
       <c r="B51" t="n">
-        <v>1455.921779171152</v>
+        <v>1236.950293581837</v>
       </c>
       <c r="C51" t="n">
-        <v>1455921779.171152</v>
+        <v>1236950293.581837</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>0.1</v>
       </c>
       <c r="B52" t="n">
-        <v>1459.945653353055</v>
+        <v>1240.646694539391</v>
       </c>
       <c r="C52" t="n">
-        <v>1459945653.353055</v>
+        <v>1240646694.539391</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>0.102</v>
       </c>
       <c r="B53" t="n">
-        <v>1463.900713556593</v>
+        <v>1244.281024987643</v>
       </c>
       <c r="C53" t="n">
-        <v>1463900713.556593</v>
+        <v>1244281024.987643</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>0.104</v>
       </c>
       <c r="B54" t="n">
-        <v>1467.789450589567</v>
+        <v>1247.855507602415</v>
       </c>
       <c r="C54" t="n">
-        <v>1467789450.589567</v>
+        <v>1247855507.602415</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>0.106</v>
       </c>
       <c r="B55" t="n">
-        <v>1471.614219349855</v>
+        <v>1251.372244801088</v>
       </c>
       <c r="C55" t="n">
-        <v>1471614219.349855</v>
+        <v>1251372244.801088</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>0.108</v>
       </c>
       <c r="B56" t="n">
-        <v>1475.377248644507</v>
+        <v>1254.833227367702</v>
       </c>
       <c r="C56" t="n">
-        <v>1475377248.644507</v>
+        <v>1254833227.367702</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>0.11</v>
       </c>
       <c r="B57" t="n">
-        <v>1479.080650132192</v>
+        <v>1258.240342313061</v>
       </c>
       <c r="C57" t="n">
-        <v>1479080650.132192</v>
+        <v>1258240342.313061</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>0.112</v>
       </c>
       <c r="B58" t="n">
-        <v>1482.726426481626</v>
+        <v>1261.595380050208</v>
       </c>
       <c r="C58" t="n">
-        <v>1482726426.481626</v>
+        <v>1261595380.050208</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>0.114</v>
       </c>
       <c r="B59" t="n">
-        <v>1486.316478827422</v>
+        <v>1264.900040955927</v>
       </c>
       <c r="C59" t="n">
-        <v>1486316478.827422</v>
+        <v>1264900040.955927</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>0.116</v>
       </c>
       <c r="B60" t="n">
-        <v>1489.852613595019</v>
+        <v>1268.155941380541</v>
       </c>
       <c r="C60" t="n">
-        <v>1489852613.595019</v>
+        <v>1268155941.380541</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>0.118</v>
       </c>
       <c r="B61" t="n">
-        <v>1493.336548757957</v>
+        <v>1271.364619161004</v>
       </c>
       <c r="C61" t="n">
-        <v>1493336548.757957</v>
+        <v>1271364619.161004</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>0.12</v>
       </c>
       <c r="B62" t="n">
-        <v>1496.769919583485</v>
+        <v>1274.527538685979</v>
       </c>
       <c r="C62" t="n">
-        <v>1496769919.583485</v>
+        <v>1274527538.685979</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>0.122</v>
       </c>
       <c r="B63" t="n">
-        <v>1500.154283916082</v>
+        <v>1277.646095556073</v>
       </c>
       <c r="C63" t="n">
-        <v>1500154283.916082</v>
+        <v>1277646095.556073</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>0.124</v>
       </c>
       <c r="B64" t="n">
-        <v>1503.491127043001</v>
+        <v>1280.721620877652</v>
       </c>
       <c r="C64" t="n">
-        <v>1503491127.043001</v>
+        <v>1280721620.877651</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>0.126</v>
       </c>
       <c r="B65" t="n">
-        <v>1506.781866181029</v>
+        <v>1283.755385224409</v>
       </c>
       <c r="C65" t="n">
-        <v>1506781866.18103</v>
+        <v>1283755385.224409</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>0.128</v>
       </c>
       <c r="B66" t="n">
-        <v>1510.027854619491</v>
+        <v>1286.748602297219</v>
       </c>
       <c r="C66" t="n">
-        <v>1510027854.619491</v>
+        <v>1286748602.297219</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>0.13</v>
       </c>
       <c r="B67" t="n">
-        <v>1513.230385550727</v>
+        <v>1289.702432309568</v>
       </c>
       <c r="C67" t="n">
-        <v>1513230385.550727</v>
+        <v>1289702432.309568</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>0.132</v>
       </c>
       <c r="B68" t="n">
-        <v>1516.390695616057</v>
+        <v>1292.617985122985</v>
       </c>
       <c r="C68" t="n">
-        <v>1516390695.616057</v>
+        <v>1292617985.122985</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>0.134</v>
       </c>
       <c r="B69" t="n">
-        <v>1519.509968192311</v>
+        <v>1295.496323154428</v>
       </c>
       <c r="C69" t="n">
-        <v>1519509968.192311</v>
+        <v>1295496323.154428</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>0.136</v>
       </c>
       <c r="B70" t="n">
-        <v>1522.589336441481</v>
+        <v>1298.338464075324</v>
       </c>
       <c r="C70" t="n">
-        <v>1522589336.441481</v>
+        <v>1298338464.075324</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>0.138</v>
       </c>
       <c r="B71" t="n">
-        <v>1525.629886143773</v>
+        <v>1301.145383320005</v>
       </c>
       <c r="C71" t="n">
-        <v>1525629886.143773</v>
+        <v>1301145383.320005</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>0.14</v>
       </c>
       <c r="B72" t="n">
-        <v>1528.632658332336</v>
+        <v>1303.91801641955</v>
       </c>
       <c r="C72" t="n">
-        <v>1528632658.332336</v>
+        <v>1303918016.41955</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>0.142</v>
       </c>
       <c r="B73" t="n">
-        <v>1531.598651746182</v>
+        <v>1306.657261175486</v>
       </c>
       <c r="C73" t="n">
-        <v>1531598651.746182</v>
+        <v>1306657261.175486</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>0.144</v>
       </c>
       <c r="B74" t="n">
-        <v>1534.528825116194</v>
+        <v>1309.363979686402</v>
       </c>
       <c r="C74" t="n">
-        <v>1534528825.116194</v>
+        <v>1309363979.686402</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>0.146</v>
       </c>
       <c r="B75" t="n">
-        <v>1537.424099297743</v>
+        <v>1312.039000239327</v>
       </c>
       <c r="C75" t="n">
-        <v>1537424099.297743</v>
+        <v>1312039000.239327</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>0.148</v>
       </c>
       <c r="B76" t="n">
-        <v>1540.285359262139</v>
+        <v>1314.683119076615</v>
       </c>
       <c r="C76" t="n">
-        <v>1540285359.262139</v>
+        <v>1314683119.076615</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>0.15</v>
       </c>
       <c r="B77" t="n">
-        <v>1543.113455958041</v>
+        <v>1317.297102048064</v>
       </c>
       <c r="C77" t="n">
-        <v>1543113455.958041</v>
+        <v>1317297102.048064</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>0.152</v>
       </c>
       <c r="B78" t="n">
-        <v>1545.909208052928</v>
+        <v>1319.881686157173</v>
       </c>
       <c r="C78" t="n">
-        <v>1545909208.052928</v>
+        <v>1319881686.157173</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>0.154</v>
       </c>
       <c r="B79" t="n">
-        <v>1548.673403563815</v>
+        <v>1322.437581009588</v>
       </c>
       <c r="C79" t="n">
-        <v>1548673403.563815</v>
+        <v>1322437581.009588</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>0.156</v>
       </c>
       <c r="B80" t="n">
-        <v>1551.406801385619</v>
+        <v>1324.965470171111</v>
       </c>
       <c r="C80" t="n">
-        <v>1551406801.385619</v>
+        <v>1324965470.171111</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>0.158</v>
       </c>
       <c r="B81" t="n">
-        <v>1554.110132724793</v>
+        <v>1327.466012441996</v>
       </c>
       <c r="C81" t="n">
-        <v>1554110132.724793</v>
+        <v>1327466012.441996</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>0.16</v>
       </c>
       <c r="B82" t="n">
-        <v>1556.784102445243</v>
+        <v>1329.93984305369</v>
       </c>
       <c r="C82" t="n">
-        <v>1556784102.445243</v>
+        <v>1329939843.05369</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>0.162</v>
       </c>
       <c r="B83" t="n">
-        <v>1559.429390332904</v>
+        <v>1332.387574793613</v>
       </c>
       <c r="C83" t="n">
-        <v>1559429390.332904</v>
+        <v>1332387574.793613</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>0.164</v>
       </c>
       <c r="B84" t="n">
-        <v>1562.046652284834</v>
+        <v>1334.809799063163</v>
       </c>
       <c r="C84" t="n">
-        <v>1562046652.284834</v>
+        <v>1334809799.063163</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>0.166</v>
       </c>
       <c r="B85" t="n">
-        <v>1564.636521428191</v>
+        <v>1337.207086873651</v>
       </c>
       <c r="C85" t="n">
-        <v>1564636521.428191</v>
+        <v>1337207086.873652</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>0.168</v>
       </c>
       <c r="B86" t="n">
-        <v>1567.199609174018</v>
+        <v>1339.579989784511</v>
       </c>
       <c r="C86" t="n">
-        <v>1567199609.174018</v>
+        <v>1339579989.784511</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>0.17</v>
       </c>
       <c r="B87" t="n">
-        <v>1569.736506210362</v>
+        <v>1341.929040787774</v>
       </c>
       <c r="C87" t="n">
-        <v>1569736506.210362</v>
+        <v>1341929040.787774</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>0.172</v>
       </c>
       <c r="B88" t="n">
-        <v>1572.247783438887</v>
+        <v>1344.25475514247</v>
       </c>
       <c r="C88" t="n">
-        <v>1572247783.438887</v>
+        <v>1344254755.14247</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>0.174</v>
       </c>
       <c r="B89" t="n">
-        <v>1574.733992858812</v>
+        <v>1346.557631162347</v>
       </c>
       <c r="C89" t="n">
-        <v>1574733992.858812</v>
+        <v>1346557631.162347</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>0.176</v>
       </c>
       <c r="B90" t="n">
-        <v>1577.195668401712</v>
+        <v>1348.838150960011</v>
       </c>
       <c r="C90" t="n">
-        <v>1577195668.401712</v>
+        <v>1348838150.960011</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>0.178</v>
       </c>
       <c r="B91" t="n">
-        <v>1579.63332672042</v>
+        <v>1351.096781150367</v>
       </c>
       <c r="C91" t="n">
-        <v>1579633326.720419</v>
+        <v>1351096781.150367</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>0.18</v>
       </c>
       <c r="B92" t="n">
-        <v>1582.047467935062</v>
+        <v>1353.333973516018</v>
       </c>
       <c r="C92" t="n">
-        <v>1582047467.935062</v>
+        <v>1353333973.516018</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>0.182</v>
       </c>
       <c r="B93" t="n">
-        <v>1584.438576338986</v>
+        <v>1355.550165637069</v>
       </c>
       <c r="C93" t="n">
-        <v>1584438576.338985</v>
+        <v>1355550165.637069</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>0.184</v>
       </c>
       <c r="B94" t="n">
-        <v>1586.807121067158</v>
+        <v>1357.745781487615</v>
       </c>
       <c r="C94" t="n">
-        <v>1586807121.067158</v>
+        <v>1357745781.487615</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>0.186</v>
       </c>
       <c r="B95" t="n">
-        <v>1589.153556729414</v>
+        <v>1359.921232001015</v>
       </c>
       <c r="C95" t="n">
-        <v>1589153556.729414</v>
+        <v>1359921232.001015</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>0.188</v>
       </c>
       <c r="B96" t="n">
-        <v>1591.478324010757</v>
+        <v>1362.076915605893</v>
       </c>
       <c r="C96" t="n">
-        <v>1591478324.010757</v>
+        <v>1362076915.605893</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>0.19</v>
       </c>
       <c r="B97" t="n">
-        <v>1593.781850240761</v>
+        <v>1364.213218734684</v>
       </c>
       <c r="C97" t="n">
-        <v>1593781850.240761</v>
+        <v>1364213218.734684</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>0.192</v>
       </c>
       <c r="B98" t="n">
-        <v>1596.064549933968</v>
+        <v>1366.330516306404</v>
       </c>
       <c r="C98" t="n">
-        <v>1596064549.933968</v>
+        <v>1366330516.306404</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>0.194</v>
       </c>
       <c r="B99" t="n">
-        <v>1598.326825303043</v>
+        <v>1368.429172185193</v>
       </c>
       <c r="C99" t="n">
-        <v>1598326825.303043</v>
+        <v>1368429172.185194</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>0.196</v>
       </c>
       <c r="B100" t="n">
-        <v>1600.569066746326</v>
+        <v>1370.509539616095</v>
       </c>
       <c r="C100" t="n">
-        <v>1600569066.746326</v>
+        <v>1370509539.616095</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>0.198</v>
       </c>
       <c r="B101" t="n">
-        <v>1602.791653311315</v>
+        <v>1372.571961639412</v>
       </c>
       <c r="C101" t="n">
-        <v>1602791653.311315</v>
+        <v>1372571961.639412</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>0.2</v>
       </c>
       <c r="B102" t="n">
-        <v>1604.994953135474</v>
+        <v>1374.616771484907</v>
       </c>
       <c r="C102" t="n">
-        <v>1604994953.135474</v>
+        <v>1374616771.484907</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>0.202</v>
       </c>
       <c r="B103" t="n">
-        <v>1607.179323865721</v>
+        <v>1376.644292947003</v>
       </c>
       <c r="C103" t="n">
-        <v>1607179323.865721</v>
+        <v>1376644292.947003</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>0.204</v>
       </c>
       <c r="B104" t="n">
-        <v>1609.3451130578</v>
+        <v>1378.654840742096</v>
       </c>
       <c r="C104" t="n">
-        <v>1609345113.0578</v>
+        <v>1378654840.742095</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>0.206</v>
       </c>
       <c r="B105" t="n">
-        <v>1611.49265855671</v>
+        <v>1380.648720848978</v>
       </c>
       <c r="C105" t="n">
-        <v>1611492658.55671</v>
+        <v>1380648720.848978</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>0.208</v>
       </c>
       <c r="B106" t="n">
-        <v>1613.622288859242</v>
+        <v>1382.626230833345</v>
       </c>
       <c r="C106" t="n">
-        <v>1613622288.859241</v>
+        <v>1382626230.833345</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>0.21</v>
       </c>
       <c r="B107" t="n">
-        <v>1615.734323459654</v>
+        <v>1384.587660157264</v>
       </c>
       <c r="C107" t="n">
-        <v>1615734323.459654</v>
+        <v>1384587660.157264</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>0.212</v>
       </c>
       <c r="B108" t="n">
-        <v>1617.829073179399</v>
+        <v>1386.533290474434</v>
       </c>
       <c r="C108" t="n">
-        <v>1617829073.179399</v>
+        <v>1386533290.474434</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>0.214</v>
       </c>
       <c r="B109" t="n">
-        <v>1619.906840481794</v>
+        <v>1388.463395912027</v>
       </c>
       <c r="C109" t="n">
-        <v>1619906840.481794</v>
+        <v>1388463395.912027</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>0.216</v>
       </c>
       <c r="B110" t="n">
-        <v>1621.967919772451</v>
+        <v>1390.378243339832</v>
       </c>
       <c r="C110" t="n">
-        <v>1621967919.772451</v>
+        <v>1390378243.339832</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>0.218</v>
       </c>
       <c r="B111" t="n">
-        <v>1624.012597686243</v>
+        <v>1392.278092627386</v>
       </c>
       <c r="C111" t="n">
-        <v>1624012597.686243</v>
+        <v>1392278092.627386</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>0.22</v>
       </c>
       <c r="B112" t="n">
-        <v>1626.041153361513</v>
+        <v>1394.163196889737</v>
       </c>
       <c r="C112" t="n">
-        <v>1626041153.361513</v>
+        <v>1394163196.889737</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>0.222</v>
       </c>
       <c r="B113" t="n">
-        <v>1628.053858702224</v>
+        <v>1396.033802722431</v>
       </c>
       <c r="C113" t="n">
-        <v>1628053858.702224</v>
+        <v>1396033802.722431</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>0.224</v>
       </c>
       <c r="B114" t="n">
-        <v>1630.050978628662</v>
+        <v>1397.890150426301</v>
       </c>
       <c r="C114" t="n">
-        <v>1630050978.628662</v>
+        <v>1397890150.426301</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>0.226</v>
       </c>
       <c r="B115" t="n">
-        <v>1632.032771317303</v>
+        <v>1399.732474222572</v>
       </c>
       <c r="C115" t="n">
-        <v>1632032771.317303</v>
+        <v>1399732474.222572</v>
       </c>
     </row>
     <row r="116">
@@ -1709,10 +1709,10 @@
         <v>0.228</v>
       </c>
       <c r="B116" t="n">
-        <v>1633.999488430404</v>
+        <v>1401.561002458792</v>
       </c>
       <c r="C116" t="n">
-        <v>1633999488.430404</v>
+        <v>1401561002.458792</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>0.23</v>
       </c>
       <c r="B117" t="n">
-        <v>1635.951375335834</v>
+        <v>1403.375957806058</v>
       </c>
       <c r="C117" t="n">
-        <v>1635951375.335834</v>
+        <v>1403375957.806058</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>0.232</v>
       </c>
       <c r="B118" t="n">
-        <v>1637.888671317651</v>
+        <v>1405.177557447957</v>
       </c>
       <c r="C118" t="n">
-        <v>1637888671.317651</v>
+        <v>1405177557.447957</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>0.234</v>
       </c>
       <c r="B119" t="n">
-        <v>1639.811609777884</v>
+        <v>1406.966013261673</v>
       </c>
       <c r="C119" t="n">
-        <v>1639811609.777884</v>
+        <v>1406966013.261673</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>0.236</v>
       </c>
       <c r="B120" t="n">
-        <v>1641.720418429965</v>
+        <v>1408.741531991612</v>
       </c>
       <c r="C120" t="n">
-        <v>1641720418.429965</v>
+        <v>1408741531.991612</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>0.238</v>
       </c>
       <c r="B121" t="n">
-        <v>1643.615319484221</v>
+        <v>1410.50431541594</v>
       </c>
       <c r="C121" t="n">
-        <v>1643615319.484221</v>
+        <v>1410504315.41594</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>0.24</v>
       </c>
       <c r="B122" t="n">
-        <v>1645.496529825807</v>
+        <v>1412.254560506371</v>
       </c>
       <c r="C122" t="n">
-        <v>1645496529.825807</v>
+        <v>1412254560.506371</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>0.242</v>
       </c>
       <c r="B123" t="n">
-        <v>1647.364261185473</v>
+        <v>1413.992459581527</v>
       </c>
       <c r="C123" t="n">
-        <v>1647364261.185473</v>
+        <v>1413992459.581527</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>0.244</v>
       </c>
       <c r="B124" t="n">
-        <v>1649.218720303476</v>
+        <v>1415.718200454193</v>
       </c>
       <c r="C124" t="n">
-        <v>1649218720.303476</v>
+        <v>1415718200.454193</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>0.246</v>
       </c>
       <c r="B125" t="n">
-        <v>1651.060109086998</v>
+        <v>1417.431966572741</v>
       </c>
       <c r="C125" t="n">
-        <v>1651060109.086998</v>
+        <v>1417431966.572742</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>0.248</v>
       </c>
       <c r="B126" t="n">
-        <v>1652.888624761357</v>
+        <v>1419.133937157019</v>
       </c>
       <c r="C126" t="n">
-        <v>1652888624.761357</v>
+        <v>1419133937.157019</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>0.25</v>
       </c>
       <c r="B127" t="n">
-        <v>1654.704460015309</v>
+        <v>1420.824287328937</v>
       </c>
       <c r="C127" t="n">
-        <v>1654704460.015309</v>
+        <v>1420824287.328937</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>0.252</v>
       </c>
       <c r="B128" t="n">
-        <v>1656.507803140723</v>
+        <v>1422.503188238031</v>
       </c>
       <c r="C128" t="n">
-        <v>1656507803.140723</v>
+        <v>1422503188.238031</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>0.254</v>
       </c>
       <c r="B129" t="n">
-        <v>1658.298838166887</v>
+        <v>1424.170807182205</v>
       </c>
       <c r="C129" t="n">
-        <v>1658298838.166887</v>
+        <v>1424170807.182205</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>0.256</v>
       </c>
       <c r="B130" t="n">
-        <v>1660.077744989677</v>
+        <v>1425.827307723899</v>
       </c>
       <c r="C130" t="n">
-        <v>1660077744.989677</v>
+        <v>1425827307.723899</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>0.258</v>
       </c>
       <c r="B131" t="n">
-        <v>1661.844699495855</v>
+        <v>1427.472849801862</v>
       </c>
       <c r="C131" t="n">
-        <v>1661844699.495855</v>
+        <v>1427472849.801862</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>0.26</v>
       </c>
       <c r="B132" t="n">
-        <v>1663.599873682684</v>
+        <v>1429.107589838761</v>
       </c>
       <c r="C132" t="n">
-        <v>1663599873.682684</v>
+        <v>1429107589.838761</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>0.262</v>
       </c>
       <c r="B133" t="n">
-        <v>1665.343435773092</v>
+        <v>1430.731680844785</v>
       </c>
       <c r="C133" t="n">
-        <v>1665343435.773092</v>
+        <v>1430731680.844785</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>0.264</v>
       </c>
       <c r="B134" t="n">
-        <v>1667.075550326575</v>
+        <v>1432.345272517435</v>
       </c>
       <c r="C134" t="n">
-        <v>1667075550.326575</v>
+        <v>1432345272.517435</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>0.266</v>
       </c>
       <c r="B135" t="n">
-        <v>1668.796378346025</v>
+        <v>1433.948511337668</v>
       </c>
       <c r="C135" t="n">
-        <v>1668796378.346025</v>
+        <v>1433948511.337668</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>0.268</v>
       </c>
       <c r="B136" t="n">
-        <v>1670.506077380671</v>
+        <v>1435.541540662551</v>
       </c>
       <c r="C136" t="n">
-        <v>1670506077.380671</v>
+        <v>1435541540.662551</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>0.27</v>
       </c>
       <c r="B137" t="n">
-        <v>1672.204801625292</v>
+        <v>1437.12450081458</v>
       </c>
       <c r="C137" t="n">
-        <v>1672204801.625293</v>
+        <v>1437124500.814579</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>0.272</v>
       </c>
       <c r="B138" t="n">
-        <v>1673.892702015876</v>
+        <v>1438.697529167798</v>
       </c>
       <c r="C138" t="n">
-        <v>1673892702.015876</v>
+        <v>1438697529.167798</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>0.274</v>
       </c>
       <c r="B139" t="n">
-        <v>1675.569926321861</v>
+        <v>1440.260760230869</v>
       </c>
       <c r="C139" t="n">
-        <v>1675569926.321861</v>
+        <v>1440260760.23087</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>0.276</v>
       </c>
       <c r="B140" t="n">
-        <v>1677.236619235118</v>
+        <v>1441.814325727218</v>
       </c>
       <c r="C140" t="n">
-        <v>1677236619.235118</v>
+        <v>1441814325.727218</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>0.278</v>
       </c>
       <c r="B141" t="n">
-        <v>1678.892922455813</v>
+        <v>1443.358354672366</v>
       </c>
       <c r="C141" t="n">
-        <v>1678892922.455813</v>
+        <v>1443358354.672366</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>0.28</v>
       </c>
       <c r="B142" t="n">
-        <v>1680.538974775265</v>
+        <v>1444.892973448583</v>
       </c>
       <c r="C142" t="n">
-        <v>1680538974.775265</v>
+        <v>1444892973.448583</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>0.282</v>
       </c>
       <c r="B143" t="n">
-        <v>1682.174912155946</v>
+        <v>1446.418305876971</v>
       </c>
       <c r="C143" t="n">
-        <v>1682174912.155946</v>
+        <v>1446418305.876971</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>0.284</v>
       </c>
       <c r="B144" t="n">
-        <v>1683.800867808722</v>
+        <v>1447.934473287067</v>
       </c>
       <c r="C144" t="n">
-        <v>1683800867.808722</v>
+        <v>1447934473.287067</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>0.286</v>
       </c>
       <c r="B145" t="n">
-        <v>1685.416972267466</v>
+        <v>1449.441594584095</v>
       </c>
       <c r="C145" t="n">
-        <v>1685416972.267466</v>
+        <v>1449441594.584095</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>0.288</v>
       </c>
       <c r="B146" t="n">
-        <v>1687.023353461133</v>
+        <v>1450.939786313934</v>
       </c>
       <c r="C146" t="n">
-        <v>1687023353.461133</v>
+        <v>1450939786.313934</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>0.29</v>
       </c>
       <c r="B147" t="n">
-        <v>1688.62013678342</v>
+        <v>1452.429162725917</v>
       </c>
       <c r="C147" t="n">
-        <v>1688620136.78342</v>
+        <v>1452429162.725917</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>0.292</v>
       </c>
       <c r="B148" t="n">
-        <v>1690.207445160084</v>
+        <v>1453.909835833535</v>
       </c>
       <c r="C148" t="n">
-        <v>1690207445.160084</v>
+        <v>1453909835.833535</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>0.294</v>
       </c>
       <c r="B149" t="n">
-        <v>1691.785399114038</v>
+        <v>1455.381915473133</v>
       </c>
       <c r="C149" t="n">
-        <v>1691785399.114038</v>
+        <v>1455381915.473133</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>0.296</v>
       </c>
       <c r="B150" t="n">
-        <v>1693.354116828288</v>
+        <v>1456.845509360681</v>
       </c>
       <c r="C150" t="n">
-        <v>1693354116.828288</v>
+        <v>1456845509.360681</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>0.298</v>
       </c>
       <c r="B151" t="n">
-        <v>1694.913714206821</v>
+        <v>1458.300723146691</v>
       </c>
       <c r="C151" t="n">
-        <v>1694913714.206821</v>
+        <v>1458300723.146691</v>
       </c>
     </row>
     <row r="152">
@@ -2105,10 +2105,10 @@
         <v>0.3</v>
       </c>
       <c r="B152" t="n">
-        <v>1696.464304933503</v>
+        <v>1459.747660469356</v>
       </c>
       <c r="C152" t="n">
-        <v>1696464304.933503</v>
+        <v>1459747660.469356</v>
       </c>
     </row>
     <row r="153">
@@ -2116,10 +2116,10 @@
         <v>0.302</v>
       </c>
       <c r="B153" t="n">
-        <v>1698.006000529075</v>
+        <v>1461.186423005972</v>
       </c>
       <c r="C153" t="n">
-        <v>1698006000.529074</v>
+        <v>1461186423.005972</v>
       </c>
     </row>
     <row r="154">
@@ -2127,10 +2127,10 @@
         <v>0.304</v>
       </c>
       <c r="B154" t="n">
-        <v>1699.538910406322</v>
+        <v>1462.617110522726</v>
       </c>
       <c r="C154" t="n">
-        <v>1699538910.406322</v>
+        <v>1462617110.522726</v>
       </c>
     </row>
     <row r="155">
@@ -2138,10 +2138,10 @@
         <v>0.306</v>
       </c>
       <c r="B155" t="n">
-        <v>1701.063141923484</v>
+        <v>1464.039820922896</v>
       </c>
       <c r="C155" t="n">
-        <v>1701063141.923484</v>
+        <v>1464039820.922896</v>
       </c>
     </row>
     <row r="156">
@@ -2149,10 +2149,10 @@
         <v>0.308</v>
       </c>
       <c r="B156" t="n">
-        <v>1702.578800435963</v>
+        <v>1465.454650293525</v>
       </c>
       <c r="C156" t="n">
-        <v>1702578800.435963</v>
+        <v>1465454650.293525</v>
       </c>
     </row>
     <row r="157">
@@ -2160,10 +2160,10 @@
         <v>0.31</v>
       </c>
       <c r="B157" t="n">
-        <v>1704.085989346421</v>
+        <v>1466.861692950647</v>
       </c>
       <c r="C157" t="n">
-        <v>1704085989.346421</v>
+        <v>1466861692.950647</v>
       </c>
     </row>
     <row r="158">
@@ -2171,10 +2171,10 @@
         <v>0.312</v>
       </c>
       <c r="B158" t="n">
-        <v>1705.584810153293</v>
+        <v>1468.26104148308</v>
       </c>
       <c r="C158" t="n">
-        <v>1705584810.153293</v>
+        <v>1468261041.48308</v>
       </c>
     </row>
     <row r="159">
@@ -2182,10 +2182,10 @@
         <v>0.314</v>
       </c>
       <c r="B159" t="n">
-        <v>1707.075362497802</v>
+        <v>1469.652786794891</v>
       </c>
       <c r="C159" t="n">
-        <v>1707075362.497802</v>
+        <v>1469652786.794891</v>
       </c>
     </row>
     <row r="160">
@@ -2193,10 +2193,10 @@
         <v>0.316</v>
       </c>
       <c r="B160" t="n">
-        <v>1708.557744209519</v>
+        <v>1471.03701814653</v>
       </c>
       <c r="C160" t="n">
-        <v>1708557744.209519</v>
+        <v>1471037018.14653</v>
       </c>
     </row>
     <row r="161">
@@ -2204,10 +2204,10 @@
         <v>0.318</v>
       </c>
       <c r="B161" t="n">
-        <v>1710.032051350532</v>
+        <v>1472.413823194721</v>
       </c>
       <c r="C161" t="n">
-        <v>1710032051.350532</v>
+        <v>1472413823.194721</v>
       </c>
     </row>
     <row r="162">
@@ -2215,10 +2215,10 @@
         <v>0.32</v>
       </c>
       <c r="B162" t="n">
-        <v>1711.49837825825</v>
+        <v>1473.783288031139</v>
       </c>
       <c r="C162" t="n">
-        <v>1711498378.25825</v>
+        <v>1473783288.031139</v>
       </c>
     </row>
     <row r="163">
@@ -2226,10 +2226,10 @@
         <v>0.322</v>
       </c>
       <c r="B163" t="n">
-        <v>1712.956817586934</v>
+        <v>1475.145497219915</v>
       </c>
       <c r="C163" t="n">
-        <v>1712956817.586935</v>
+        <v>1475145497.219915</v>
       </c>
     </row>
     <row r="164">
@@ -2237,10 +2237,10 @@
         <v>0.324</v>
       </c>
       <c r="B164" t="n">
-        <v>1714.407460347958</v>
+        <v>1476.500533834017</v>
       </c>
       <c r="C164" t="n">
-        <v>1714407460.347958</v>
+        <v>1476500533.834017</v>
       </c>
     </row>
     <row r="165">
@@ -2248,10 +2248,10 @@
         <v>0.326</v>
       </c>
       <c r="B165" t="n">
-        <v>1715.850395948871</v>
+        <v>1477.848479490551</v>
       </c>
       <c r="C165" t="n">
-        <v>1715850395.94887</v>
+        <v>1477848479.490551</v>
       </c>
     </row>
     <row r="166">
@@ -2259,10 +2259,10 @@
         <v>0.328</v>
       </c>
       <c r="B166" t="n">
-        <v>1717.285712231302</v>
+        <v>1479.189414385015</v>
       </c>
       <c r="C166" t="n">
-        <v>1717285712.231302</v>
+        <v>1479189414.385015</v>
       </c>
     </row>
     <row r="167">
@@ -2270,10 +2270,10 @@
         <v>0.33</v>
       </c>
       <c r="B167" t="n">
-        <v>1718.713495507739</v>
+        <v>1480.523417324532</v>
       </c>
       <c r="C167" t="n">
-        <v>1718713495.507739</v>
+        <v>1480523417.324532</v>
       </c>
     </row>
     <row r="168">
@@ -2281,10 +2281,10 @@
         <v>0.332</v>
       </c>
       <c r="B168" t="n">
-        <v>1720.133830597225</v>
+        <v>1481.850565760129</v>
       </c>
       <c r="C168" t="n">
-        <v>1720133830.597225</v>
+        <v>1481850565.760128</v>
       </c>
     </row>
     <row r="169">
@@ -2292,10 +2292,10 @@
         <v>0.334</v>
       </c>
       <c r="B169" t="n">
-        <v>1721.546800860018</v>
+        <v>1483.170935818062</v>
       </c>
       <c r="C169" t="n">
-        <v>1721546800.860018</v>
+        <v>1483170935.818062</v>
       </c>
     </row>
     <row r="170">
@@ -2303,10 +2303,10 @@
         <v>0.336</v>
       </c>
       <c r="B170" t="n">
-        <v>1722.952488231239</v>
+        <v>1484.484602330244</v>
       </c>
       <c r="C170" t="n">
-        <v>1722952488.231239</v>
+        <v>1484484602.330244</v>
       </c>
     </row>
     <row r="171">
@@ -2314,10 +2314,10 @@
         <v>0.338</v>
       </c>
       <c r="B171" t="n">
-        <v>1724.350973253552</v>
+        <v>1485.791638863789</v>
       </c>
       <c r="C171" t="n">
-        <v>1724350973.253552</v>
+        <v>1485791638.863789</v>
       </c>
     </row>
     <row r="172">
@@ -2325,10 +2325,10 @@
         <v>0.34</v>
       </c>
       <c r="B172" t="n">
-        <v>1725.742335108903</v>
+        <v>1487.092117749721</v>
       </c>
       <c r="C172" t="n">
-        <v>1725742335.108903</v>
+        <v>1487092117.749721</v>
       </c>
     </row>
     <row r="173">
@@ -2336,10 +2336,10 @@
         <v>0.342</v>
       </c>
       <c r="B173" t="n">
-        <v>1727.126651649357</v>
+        <v>1488.386110110858</v>
       </c>
       <c r="C173" t="n">
-        <v>1727126651.649357</v>
+        <v>1488386110.110858</v>
       </c>
     </row>
     <row r="174">
@@ -2347,10 +2347,10 @@
         <v>0.344</v>
       </c>
       <c r="B174" t="n">
-        <v>1728.503999427056</v>
+        <v>1489.673685888918</v>
       </c>
       <c r="C174" t="n">
-        <v>1728503999.427056</v>
+        <v>1489673685.888918</v>
       </c>
     </row>
     <row r="175">
@@ -2358,10 +2358,10 @@
         <v>0.346</v>
       </c>
       <c r="B175" t="n">
-        <v>1729.874453723341</v>
+        <v>1490.954913870854</v>
       </c>
       <c r="C175" t="n">
-        <v>1729874453.723341</v>
+        <v>1490954913.870854</v>
       </c>
     </row>
     <row r="176">
@@ -2369,10 +2369,10 @@
         <v>0.348</v>
       </c>
       <c r="B176" t="n">
-        <v>1731.238088577047</v>
+        <v>1492.229861714459</v>
       </c>
       <c r="C176" t="n">
-        <v>1731238088.577047</v>
+        <v>1492229861.714459</v>
       </c>
     </row>
     <row r="177">
@@ -2380,10 +2380,10 @@
         <v>0.35</v>
       </c>
       <c r="B177" t="n">
-        <v>1732.594976812014</v>
+        <v>1493.498595973259</v>
       </c>
       <c r="C177" t="n">
-        <v>1732594976.812014</v>
+        <v>1493498595.973259</v>
       </c>
     </row>
     <row r="178">
@@ -2391,10 +2391,10 @@
         <v>0.352</v>
       </c>
       <c r="B178" t="n">
-        <v>1733.945190063838</v>
+        <v>1494.761182120718</v>
       </c>
       <c r="C178" t="n">
-        <v>1733945190.063838</v>
+        <v>1494761182.120718</v>
       </c>
     </row>
     <row r="179">
@@ -2402,10 +2402,10 @@
         <v>0.354</v>
       </c>
       <c r="B179" t="n">
-        <v>1735.288798805882</v>
+        <v>1496.017684573779</v>
       </c>
       <c r="C179" t="n">
-        <v>1735288798.805882</v>
+        <v>1496017684.573779</v>
       </c>
     </row>
     <row r="180">
@@ -2413,10 +2413,10 @@
         <v>0.356</v>
       </c>
       <c r="B180" t="n">
-        <v>1736.625872374573</v>
+        <v>1497.268166715761</v>
       </c>
       <c r="C180" t="n">
-        <v>1736625872.374573</v>
+        <v>1497268166.715761</v>
       </c>
     </row>
     <row r="181">
@@ -2424,10 +2424,10 @@
         <v>0.358</v>
       </c>
       <c r="B181" t="n">
-        <v>1737.956478994013</v>
+        <v>1498.512690918639</v>
       </c>
       <c r="C181" t="n">
-        <v>1737956478.994013</v>
+        <v>1498512690.918639</v>
       </c>
     </row>
     <row r="182">
@@ -2435,10 +2435,10 @@
         <v>0.36</v>
       </c>
       <c r="B182" t="n">
-        <v>1739.280685799922</v>
+        <v>1499.751318564714</v>
       </c>
       <c r="C182" t="n">
-        <v>1739280685.799922</v>
+        <v>1499751318.564714</v>
       </c>
     </row>
     <row r="183">
@@ -2446,10 +2446,10 @@
         <v>0.362</v>
       </c>
       <c r="B183" t="n">
-        <v>1740.598558862934</v>
+        <v>1500.98411006771</v>
       </c>
       <c r="C183" t="n">
-        <v>1740598558.862934</v>
+        <v>1500984110.06771</v>
       </c>
     </row>
     <row r="184">
@@ -2457,10 +2457,10 @@
         <v>0.364</v>
       </c>
       <c r="B184" t="n">
-        <v>1741.910163211271</v>
+        <v>1502.211124893303</v>
       </c>
       <c r="C184" t="n">
-        <v>1741910163.211271</v>
+        <v>1502211124.893303</v>
       </c>
     </row>
     <row r="185">
@@ -2468,10 +2468,10 @@
         <v>0.366</v>
       </c>
       <c r="B185" t="n">
-        <v>1743.215562852811</v>
+        <v>1503.432421579104</v>
       </c>
       <c r="C185" t="n">
-        <v>1743215562.852811</v>
+        <v>1503432421.579104</v>
       </c>
     </row>
     <row r="186">
@@ -2479,10 +2479,10 @@
         <v>0.368</v>
       </c>
       <c r="B186" t="n">
-        <v>1744.514820796571</v>
+        <v>1504.648057754119</v>
       </c>
       <c r="C186" t="n">
-        <v>1744514820.796571</v>
+        <v>1504648057.754119</v>
       </c>
     </row>
     <row r="187">
@@ -2490,10 +2490,10 @@
         <v>0.37</v>
       </c>
       <c r="B187" t="n">
-        <v>1745.807999073629</v>
+        <v>1505.858090157694</v>
       </c>
       <c r="C187" t="n">
-        <v>1745807999.073629</v>
+        <v>1505858090.157694</v>
       </c>
     </row>
     <row r="188">
@@ -2501,10 +2501,10 @@
         <v>0.372</v>
       </c>
       <c r="B188" t="n">
-        <v>1747.095158757487</v>
+        <v>1507.062574657966</v>
       </c>
       <c r="C188" t="n">
-        <v>1747095158.757487</v>
+        <v>1507062574.657966</v>
       </c>
     </row>
     <row r="189">
@@ -2512,10 +2512,10 @@
         <v>0.374</v>
       </c>
       <c r="B189" t="n">
-        <v>1748.376359983914</v>
+        <v>1508.261566269832</v>
       </c>
       <c r="C189" t="n">
-        <v>1748376359.983914</v>
+        <v>1508261566.269832</v>
       </c>
     </row>
     <row r="190">
@@ -2523,10 +2523,10 @@
         <v>0.376</v>
       </c>
       <c r="B190" t="n">
-        <v>1749.651661970265</v>
+        <v>1509.455119172463</v>
       </c>
       <c r="C190" t="n">
-        <v>1749651661.970265</v>
+        <v>1509455119.172463</v>
       </c>
     </row>
     <row r="191">
@@ -2534,10 +2534,10 @@
         <v>0.378</v>
       </c>
       <c r="B191" t="n">
-        <v>1750.921123034308</v>
+        <v>1510.643286726352</v>
       </c>
       <c r="C191" t="n">
-        <v>1750921123.034308</v>
+        <v>1510643286.726351</v>
       </c>
     </row>
     <row r="192">
@@ -2545,10 +2545,10 @@
         <v>0.38</v>
       </c>
       <c r="B192" t="n">
-        <v>1752.184800612567</v>
+        <v>1511.826121489942</v>
       </c>
       <c r="C192" t="n">
-        <v>1752184800.612567</v>
+        <v>1511826121.489942</v>
       </c>
     </row>
     <row r="193">
@@ -2556,10 +2556,10 @@
         <v>0.382</v>
       </c>
       <c r="B193" t="n">
-        <v>1753.44275127819</v>
+        <v>1513.003675235821</v>
       </c>
       <c r="C193" t="n">
-        <v>1753442751.27819</v>
+        <v>1513003675.235821</v>
       </c>
     </row>
     <row r="194">
@@ -2567,10 +2567,10 @@
         <v>0.384</v>
       </c>
       <c r="B194" t="n">
-        <v>1754.695030758375</v>
+        <v>1514.175998966511</v>
       </c>
       <c r="C194" t="n">
-        <v>1754695030.758375</v>
+        <v>1514175998.966511</v>
       </c>
     </row>
     <row r="195">
@@ -2578,10 +2578,10 @@
         <v>0.386</v>
       </c>
       <c r="B195" t="n">
-        <v>1755.941693951342</v>
+        <v>1515.343142929859</v>
       </c>
       <c r="C195" t="n">
-        <v>1755941693.951342</v>
+        <v>1515343142.929859</v>
       </c>
     </row>
     <row r="196">
@@ -2589,10 +2589,10 @@
         <v>0.388</v>
       </c>
       <c r="B196" t="n">
-        <v>1757.182794942892</v>
+        <v>1516.505156634038</v>
       </c>
       <c r="C196" t="n">
-        <v>1757182794.942892</v>
+        <v>1516505156.634038</v>
       </c>
     </row>
     <row r="197">
@@ -2600,10 +2600,10 @@
         <v>0.39</v>
       </c>
       <c r="B197" t="n">
-        <v>1758.418387022541</v>
+        <v>1517.662088862186</v>
       </c>
       <c r="C197" t="n">
-        <v>1758418387.022541</v>
+        <v>1517662088.862186</v>
       </c>
     </row>
     <row r="198">
@@ -2611,10 +2611,10 @@
         <v>0.392</v>
       </c>
       <c r="B198" t="n">
-        <v>1759.648522699258</v>
+        <v>1518.813987686667</v>
       </c>
       <c r="C198" t="n">
-        <v>1759648522.699258</v>
+        <v>1518813987.686667</v>
       </c>
     </row>
     <row r="199">
@@ -2622,10 +2622,10 @@
         <v>0.394</v>
       </c>
       <c r="B199" t="n">
-        <v>1760.873253716813</v>
+        <v>1519.960900482992</v>
       </c>
       <c r="C199" t="n">
-        <v>1760873253.716814</v>
+        <v>1519960900.482992</v>
       </c>
     </row>
     <row r="200">
@@ -2633,10 +2633,10 @@
         <v>0.396</v>
       </c>
       <c r="B200" t="n">
-        <v>1762.092631068748</v>
+        <v>1521.102873943394</v>
       </c>
       <c r="C200" t="n">
-        <v>1762092631.068748</v>
+        <v>1521102873.943394</v>
       </c>
     </row>
     <row r="201">
@@ -2644,10 +2644,10 @@
         <v>0.398</v>
       </c>
       <c r="B201" t="n">
-        <v>1763.306705012974</v>
+        <v>1522.239954090069</v>
       </c>
       <c r="C201" t="n">
-        <v>1763306705.012974</v>
+        <v>1522239954.09007</v>
       </c>
     </row>
     <row r="202">
@@ -2655,10 +2655,10 @@
         <v>0.4</v>
       </c>
       <c r="B202" t="n">
-        <v>1764.515525086025</v>
+        <v>1523.372186288103</v>
       </c>
       <c r="C202" t="n">
-        <v>1764515525.086025</v>
+        <v>1523372186.288103</v>
       </c>
     </row>
     <row r="203">
@@ -2666,10 +2666,10 @@
         <v>0.402</v>
       </c>
       <c r="B203" t="n">
-        <v>1765.719140116953</v>
+        <v>1524.499615258073</v>
       </c>
       <c r="C203" t="n">
-        <v>1765719140.116953</v>
+        <v>1524499615.258073</v>
       </c>
     </row>
     <row r="204">
@@ -2677,10 +2677,10 @@
         <v>0.404</v>
       </c>
       <c r="B204" t="n">
-        <v>1766.917598240898</v>
+        <v>1525.622285088365</v>
       </c>
       <c r="C204" t="n">
-        <v>1766917598.240898</v>
+        <v>1525622285.088365</v>
       </c>
     </row>
     <row r="205">
@@ -2688,10 +2688,10 @@
         <v>0.406</v>
       </c>
       <c r="B205" t="n">
-        <v>1768.110946912323</v>
+        <v>1526.740239247174</v>
       </c>
       <c r="C205" t="n">
-        <v>1768110946.912323</v>
+        <v>1526740239.247175</v>
       </c>
     </row>
     <row r="206">
@@ -2699,10 +2699,10 @@
         <v>0.408</v>
       </c>
       <c r="B206" t="n">
-        <v>1769.299232917943</v>
+        <v>1527.853520594241</v>
       </c>
       <c r="C206" t="n">
-        <v>1769299232.917943</v>
+        <v>1527853520.594241</v>
       </c>
     </row>
     <row r="207">
@@ -2710,10 +2710,10 @@
         <v>0.41</v>
       </c>
       <c r="B207" t="n">
-        <v>1770.482502389336</v>
+        <v>1528.96217139229</v>
       </c>
       <c r="C207" t="n">
-        <v>1770482502.389336</v>
+        <v>1528962171.39229</v>
       </c>
     </row>
     <row r="208">
@@ -2721,10 +2721,10 @@
         <v>0.412</v>
       </c>
       <c r="B208" t="n">
-        <v>1771.660800815262</v>
+        <v>1530.066233318215</v>
       </c>
       <c r="C208" t="n">
-        <v>1771660800.815262</v>
+        <v>1530066233.318215</v>
       </c>
     </row>
     <row r="209">
@@ -2732,10 +2732,10 @@
         <v>0.414</v>
       </c>
       <c r="B209" t="n">
-        <v>1772.834173053691</v>
+        <v>1531.16574747399</v>
       </c>
       <c r="C209" t="n">
-        <v>1772834173.053691</v>
+        <v>1531165747.47399</v>
       </c>
     </row>
     <row r="210">
@@ -2743,10 +2743,10 @@
         <v>0.416</v>
       </c>
       <c r="B210" t="n">
-        <v>1774.002663343546</v>
+        <v>1532.260754397331</v>
       </c>
       <c r="C210" t="n">
-        <v>1774002663.343546</v>
+        <v>1532260754.397331</v>
       </c>
     </row>
     <row r="211">
@@ -2754,10 +2754,10 @@
         <v>0.418</v>
       </c>
       <c r="B211" t="n">
-        <v>1775.166315316178</v>
+        <v>1533.351294072109</v>
       </c>
       <c r="C211" t="n">
-        <v>1775166315.316179</v>
+        <v>1533351294.072109</v>
       </c>
     </row>
     <row r="212">
@@ -2765,10 +2765,10 @@
         <v>0.42</v>
       </c>
       <c r="B212" t="n">
-        <v>1776.325172006568</v>
+        <v>1534.437405938523</v>
       </c>
       <c r="C212" t="n">
-        <v>1776325172.006568</v>
+        <v>1534437405.938523</v>
       </c>
     </row>
     <row r="213">
@@ -2776,10 +2776,10 @@
         <v>0.422</v>
       </c>
       <c r="B213" t="n">
-        <v>1777.479275864273</v>
+        <v>1535.519128903035</v>
       </c>
       <c r="C213" t="n">
-        <v>1777479275.864273</v>
+        <v>1535519128.903035</v>
       </c>
     </row>
     <row r="214">
@@ -2787,10 +2787,10 @@
         <v>0.424</v>
       </c>
       <c r="B214" t="n">
-        <v>1778.628668764122</v>
+        <v>1536.596501348083</v>
       </c>
       <c r="C214" t="n">
-        <v>1778628668.764122</v>
+        <v>1536596501.348083</v>
       </c>
     </row>
     <row r="215">
@@ -2798,10 +2798,10 @@
         <v>0.426</v>
       </c>
       <c r="B215" t="n">
-        <v>1779.773392016663</v>
+        <v>1537.669561141566</v>
       </c>
       <c r="C215" t="n">
-        <v>1779773392.016663</v>
+        <v>1537669561.141566</v>
       </c>
     </row>
     <row r="216">
@@ -2809,10 +2809,10 @@
         <v>0.428</v>
       </c>
       <c r="B216" t="n">
-        <v>1780.91348637838</v>
+        <v>1538.73834564612</v>
       </c>
       <c r="C216" t="n">
-        <v>1780913486.37838</v>
+        <v>1538738345.64612</v>
       </c>
     </row>
     <row r="217">
@@ -2820,10 +2820,10 @@
         <v>0.43</v>
       </c>
       <c r="B217" t="n">
-        <v>1782.048992061666</v>
+        <v>1539.802891728182</v>
       </c>
       <c r="C217" t="n">
-        <v>1782048992.061666</v>
+        <v>1539802891.728182</v>
       </c>
     </row>
     <row r="218">
@@ -2831,10 +2831,10 @@
         <v>0.432</v>
       </c>
       <c r="B218" t="n">
-        <v>1783.179948744581</v>
+        <v>1540.863235766844</v>
       </c>
       <c r="C218" t="n">
-        <v>1783179948.744581</v>
+        <v>1540863235.766844</v>
       </c>
     </row>
     <row r="219">
@@ -2842,10 +2842,10 @@
         <v>0.434</v>
       </c>
       <c r="B219" t="n">
-        <v>1784.30639558039</v>
+        <v>1541.919413662523</v>
       </c>
       <c r="C219" t="n">
-        <v>1784306395.58039</v>
+        <v>1541919413.662523</v>
       </c>
     </row>
     <row r="220">
@@ -2853,10 +2853,10 @@
         <v>0.436</v>
       </c>
       <c r="B220" t="n">
-        <v>1785.428371206881</v>
+        <v>1542.971460845422</v>
       </c>
       <c r="C220" t="n">
-        <v>1785428371.206881</v>
+        <v>1542971460.845422</v>
       </c>
     </row>
     <row r="221">
@@ -2864,10 +2864,10 @@
         <v>0.438</v>
       </c>
       <c r="B221" t="n">
-        <v>1786.545913755483</v>
+        <v>1544.019412283815</v>
       </c>
       <c r="C221" t="n">
-        <v>1786545913.755483</v>
+        <v>1544019412.283815</v>
       </c>
     </row>
     <row r="222">
@@ -2875,10 +2875,10 @@
         <v>0.44</v>
       </c>
       <c r="B222" t="n">
-        <v>1787.659060860176</v>
+        <v>1545.063302492141</v>
       </c>
       <c r="C222" t="n">
-        <v>1787659060.860176</v>
+        <v>1545063302.492141</v>
       </c>
     </row>
     <row r="223">
@@ -2886,10 +2886,10 @@
         <v>0.442</v>
       </c>
       <c r="B223" t="n">
-        <v>1788.76784966621</v>
+        <v>1546.103165538927</v>
       </c>
       <c r="C223" t="n">
-        <v>1788767849.66621</v>
+        <v>1546103165.538927</v>
       </c>
     </row>
     <row r="224">
@@ -2897,10 +2897,10 @@
         <v>0.444</v>
       </c>
       <c r="B224" t="n">
-        <v>1789.87231683863</v>
+        <v>1547.139035054532</v>
       </c>
       <c r="C224" t="n">
-        <v>1789872316.83863</v>
+        <v>1547139035.054532</v>
       </c>
     </row>
     <row r="225">
@@ -2908,10 +2908,10 @@
         <v>0.446</v>
       </c>
       <c r="B225" t="n">
-        <v>1790.972498570611</v>
+        <v>1548.170944238727</v>
       </c>
       <c r="C225" t="n">
-        <v>1790972498.570611</v>
+        <v>1548170944.238727</v>
       </c>
     </row>
     <row r="226">
@@ -2919,10 +2919,10 @@
         <v>0.448</v>
       </c>
       <c r="B226" t="n">
-        <v>1792.068430591619</v>
+        <v>1549.198925868104</v>
       </c>
       <c r="C226" t="n">
-        <v>1792068430.591619</v>
+        <v>1549198925.868104</v>
       </c>
     </row>
     <row r="227">
@@ -2930,10 +2930,10 @@
         <v>0.45</v>
       </c>
       <c r="B227" t="n">
-        <v>1793.16014817539</v>
+        <v>1550.223012303336</v>
       </c>
       <c r="C227" t="n">
-        <v>1793160148.17539</v>
+        <v>1550223012.303335</v>
       </c>
     </row>
     <row r="228">
@@ -2941,10 +2941,10 @@
         <v>0.452</v>
       </c>
       <c r="B228" t="n">
-        <v>1794.247686147738</v>
+        <v>1551.243235496265</v>
       </c>
       <c r="C228" t="n">
-        <v>1794247686.147738</v>
+        <v>1551243235.496265</v>
       </c>
     </row>
     <row r="229">
@@ -2952,10 +2952,10 @@
         <v>0.454</v>
       </c>
       <c r="B229" t="n">
-        <v>1795.331078894194</v>
+        <v>1552.259626996857</v>
       </c>
       <c r="C229" t="n">
-        <v>1795331078.894194</v>
+        <v>1552259626.996857</v>
       </c>
     </row>
     <row r="230">
@@ -2963,10 +2963,10 @@
         <v>0.456</v>
       </c>
       <c r="B230" t="n">
-        <v>1796.410360367487</v>
+        <v>1553.272217959993</v>
       </c>
       <c r="C230" t="n">
-        <v>1796410360.367487</v>
+        <v>1553272217.959993</v>
       </c>
     </row>
     <row r="231">
@@ -2974,10 +2974,10 @@
         <v>0.458</v>
       </c>
       <c r="B231" t="n">
-        <v>1797.485564094859</v>
+        <v>1554.281039152124</v>
       </c>
       <c r="C231" t="n">
-        <v>1797485564.094859</v>
+        <v>1554281039.152124</v>
       </c>
     </row>
     <row r="232">
@@ -2985,10 +2985,10 @@
         <v>0.46</v>
       </c>
       <c r="B232" t="n">
-        <v>1798.556723185229</v>
+        <v>1555.286120957786</v>
       </c>
       <c r="C232" t="n">
-        <v>1798556723.18523</v>
+        <v>1555286120.957786</v>
       </c>
     </row>
     <row r="233">
@@ -2996,10 +2996,10 @@
         <v>0.462</v>
       </c>
       <c r="B233" t="n">
-        <v>1799.623870336206</v>
+        <v>1556.287493385972</v>
       </c>
       <c r="C233" t="n">
-        <v>1799623870.336206</v>
+        <v>1556287493.385972</v>
       </c>
     </row>
     <row r="234">
@@ -3007,10 +3007,10 @@
         <v>0.464</v>
       </c>
       <c r="B234" t="n">
-        <v>1800.687037840949</v>
+        <v>1557.285186076376</v>
       </c>
       <c r="C234" t="n">
-        <v>1800687037.840949</v>
+        <v>1557285186.076376</v>
       </c>
     </row>
     <row r="235">
@@ -3018,10 +3018,10 @@
         <v>0.466</v>
       </c>
       <c r="B235" t="n">
-        <v>1801.746257594894</v>
+        <v>1558.279228305507</v>
       </c>
       <c r="C235" t="n">
-        <v>1801746257.594894</v>
+        <v>1558279228.305507</v>
       </c>
     </row>
     <row r="236">
@@ -3029,10 +3029,10 @@
         <v>0.468</v>
       </c>
       <c r="B236" t="n">
-        <v>1802.801561102333</v>
+        <v>1559.26964899267</v>
       </c>
       <c r="C236" t="n">
-        <v>1802801561.102333</v>
+        <v>1559269648.99267</v>
       </c>
     </row>
     <row r="237">
@@ -3040,10 +3040,10 @@
         <v>0.47</v>
       </c>
       <c r="B237" t="n">
-        <v>1803.852979482854</v>
+        <v>1560.256476705833</v>
       </c>
       <c r="C237" t="n">
-        <v>1803852979.482854</v>
+        <v>1560256476.705833</v>
       </c>
     </row>
     <row r="238">
@@ -3051,10 +3051,10 @@
         <v>0.472</v>
       </c>
       <c r="B238" t="n">
-        <v>1804.900543477659</v>
+        <v>1561.239739667362</v>
       </c>
       <c r="C238" t="n">
-        <v>1804900543.477659</v>
+        <v>1561239739.667362</v>
       </c>
     </row>
     <row r="239">
@@ -3062,10 +3062,10 @@
         <v>0.474</v>
       </c>
       <c r="B239" t="n">
-        <v>1805.944283455741</v>
+        <v>1562.219465759648</v>
       </c>
       <c r="C239" t="n">
-        <v>1805944283.45574</v>
+        <v>1562219465.759648</v>
       </c>
     </row>
     <row r="240">
@@ -3073,10 +3073,10 @@
         <v>0.476</v>
       </c>
       <c r="B240" t="n">
-        <v>1806.984229419941</v>
+        <v>1563.195682530617</v>
       </c>
       <c r="C240" t="n">
-        <v>1806984229.419941</v>
+        <v>1563195682.530617</v>
       </c>
     </row>
     <row r="241">
@@ -3084,10 +3084,10 @@
         <v>0.478</v>
       </c>
       <c r="B241" t="n">
-        <v>1808.020411012879</v>
+        <v>1564.16841719912</v>
       </c>
       <c r="C241" t="n">
-        <v>1808020411.012879</v>
+        <v>1564168417.19912</v>
       </c>
     </row>
     <row r="242">
@@ -3095,10 +3095,10 @@
         <v>0.48</v>
       </c>
       <c r="B242" t="n">
-        <v>1809.052857522764</v>
+        <v>1565.137696660229</v>
       </c>
       <c r="C242" t="n">
-        <v>1809052857.522764</v>
+        <v>1565137696.660228</v>
       </c>
     </row>
     <row r="243">
@@ -3106,10 +3106,10 @@
         <v>0.482</v>
       </c>
       <c r="B243" t="n">
-        <v>1810.081597889091</v>
+        <v>1566.103547490408</v>
       </c>
       <c r="C243" t="n">
-        <v>1810081597.889091</v>
+        <v>1566103547.490408</v>
       </c>
     </row>
     <row r="244">
@@ -3117,10 +3117,10 @@
         <v>0.484</v>
       </c>
       <c r="B244" t="n">
-        <v>1811.106660708213</v>
+        <v>1567.0659959526</v>
       </c>
       <c r="C244" t="n">
-        <v>1811106660.708213</v>
+        <v>1567065995.9526</v>
       </c>
     </row>
     <row r="245">
@@ -3128,10 +3128,10 @@
         <v>0.486</v>
       </c>
       <c r="B245" t="n">
-        <v>1812.128074238816</v>
+        <v>1568.025068001194</v>
       </c>
       <c r="C245" t="n">
-        <v>1812128074.238816</v>
+        <v>1568025068.001194</v>
       </c>
     </row>
     <row r="246">
@@ -3139,10 +3139,10 @@
         <v>0.488</v>
       </c>
       <c r="B246" t="n">
-        <v>1813.145866407272</v>
+        <v>1568.980789286905</v>
       </c>
       <c r="C246" t="n">
-        <v>1813145866.407272</v>
+        <v>1568980789.286905</v>
       </c>
     </row>
     <row r="247">
@@ -3150,10 +3150,10 @@
         <v>0.49</v>
       </c>
       <c r="B247" t="n">
-        <v>1814.16006481289</v>
+        <v>1569.933185161554</v>
       </c>
       <c r="C247" t="n">
-        <v>1814160064.81289</v>
+        <v>1569933185.161554</v>
       </c>
     </row>
     <row r="248">
@@ -3161,10 +3161,10 @@
         <v>0.492</v>
       </c>
       <c r="B248" t="n">
-        <v>1815.170696733066</v>
+        <v>1570.88228068275</v>
       </c>
       <c r="C248" t="n">
-        <v>1815170696.733066</v>
+        <v>1570882280.68275</v>
       </c>
     </row>
     <row r="249">
@@ -3172,10 +3172,10 @@
         <v>0.494</v>
       </c>
       <c r="B249" t="n">
-        <v>1816.177789128325</v>
+        <v>1571.828100618487</v>
       </c>
       <c r="C249" t="n">
-        <v>1816177789.128325</v>
+        <v>1571828100.618487</v>
       </c>
     </row>
     <row r="250">
@@ -3183,10 +3183,10 @@
         <v>0.496</v>
       </c>
       <c r="B250" t="n">
-        <v>1817.181368647273</v>
+        <v>1572.770669451645</v>
       </c>
       <c r="C250" t="n">
-        <v>1817181368.647273</v>
+        <v>1572770669.451645</v>
       </c>
     </row>
     <row r="251">
@@ -3194,10 +3194,10 @@
         <v>0.498</v>
       </c>
       <c r="B251" t="n">
-        <v>1818.181461631438</v>
+        <v>1573.710011384404</v>
       </c>
       <c r="C251" t="n">
-        <v>1818181461.631438</v>
+        <v>1573710011.384404</v>
       </c>
     </row>
     <row r="252">
@@ -3205,10 +3205,10 @@
         <v>0.5</v>
       </c>
       <c r="B252" t="n">
-        <v>1819.178094120034</v>
+        <v>1574.646150342577</v>
       </c>
       <c r="C252" t="n">
-        <v>1819178094.120034</v>
+        <v>1574646150.342577</v>
       </c>
     </row>
     <row r="253">
@@ -3216,10 +3216,10 @@
         <v>0.505</v>
       </c>
       <c r="B253" t="n">
-        <v>1821.654703882226</v>
+        <v>1576.972639293102</v>
       </c>
       <c r="C253" t="n">
-        <v>1821654703.882226</v>
+        <v>1576972639.293102</v>
       </c>
     </row>
     <row r="254">
@@ -3227,10 +3227,10 @@
         <v>0.51</v>
       </c>
       <c r="B254" t="n">
-        <v>1824.11023991967</v>
+        <v>1579.279619100386</v>
       </c>
       <c r="C254" t="n">
-        <v>1824110239.91967</v>
+        <v>1579279619.100386</v>
       </c>
     </row>
     <row r="255">
@@ -3238,10 +3238,10 @@
         <v>0.515</v>
       </c>
       <c r="B255" t="n">
-        <v>1826.545085501894</v>
+        <v>1581.567442032889</v>
       </c>
       <c r="C255" t="n">
-        <v>1826545085.501894</v>
+        <v>1581567442.032889</v>
       </c>
     </row>
     <row r="256">
@@ -3249,10 +3249,10 @@
         <v>0.52</v>
       </c>
       <c r="B256" t="n">
-        <v>1828.959613290246</v>
+        <v>1583.836450657295</v>
       </c>
       <c r="C256" t="n">
-        <v>1828959613.290246</v>
+        <v>1583836450.657295</v>
       </c>
     </row>
     <row r="257">
@@ -3260,10 +3260,10 @@
         <v>0.525</v>
       </c>
       <c r="B257" t="n">
-        <v>1831.354185730265</v>
+        <v>1586.08697819596</v>
       </c>
       <c r="C257" t="n">
-        <v>1831354185.730265</v>
+        <v>1586086978.19596</v>
       </c>
     </row>
     <row r="258">
@@ -3271,10 +3271,10 @@
         <v>0.53</v>
       </c>
       <c r="B258" t="n">
-        <v>1833.729155425952</v>
+        <v>1588.319348867931</v>
       </c>
       <c r="C258" t="n">
-        <v>1833729155.425952</v>
+        <v>1588319348.867931</v>
       </c>
     </row>
     <row r="259">
@@ -3282,10 +3282,10 @@
         <v>0.535</v>
       </c>
       <c r="B259" t="n">
-        <v>1836.084865496952</v>
+        <v>1590.533878214434</v>
       </c>
       <c r="C259" t="n">
-        <v>1836084865.496952</v>
+        <v>1590533878.214434</v>
       </c>
     </row>
     <row r="260">
@@ -3293,10 +3293,10 @@
         <v>0.54</v>
       </c>
       <c r="B260" t="n">
-        <v>1838.421649919554</v>
+        <v>1592.730873409684</v>
       </c>
       <c r="C260" t="n">
-        <v>1838421649.919554</v>
+        <v>1592730873.409684</v>
       </c>
     </row>
     <row r="261">
@@ -3304,10 +3304,10 @@
         <v>0.545</v>
       </c>
       <c r="B261" t="n">
-        <v>1840.739833852416</v>
+        <v>1594.910633557787</v>
       </c>
       <c r="C261" t="n">
-        <v>1840739833.852417</v>
+        <v>1594910633.557787</v>
       </c>
     </row>
     <row r="262">
@@ -3315,10 +3315,10 @@
         <v>0.55</v>
       </c>
       <c r="B262" t="n">
-        <v>1843.039733947802</v>
+        <v>1597.073449976509</v>
       </c>
       <c r="C262" t="n">
-        <v>1843039733.947802</v>
+        <v>1597073449.976509</v>
       </c>
     </row>
     <row r="263">
@@ -3326,10 +3326,10 @@
         <v>0.555</v>
       </c>
       <c r="B263" t="n">
-        <v>1845.321658649119</v>
+        <v>1599.219606468577</v>
       </c>
       <c r="C263" t="n">
-        <v>1845321658.649119</v>
+        <v>1599219606.468577</v>
       </c>
     </row>
     <row r="264">
@@ -3337,10 +3337,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B264" t="n">
-        <v>1847.585908475477</v>
+        <v>1601.349379581186</v>
       </c>
       <c r="C264" t="n">
-        <v>1847585908.475477</v>
+        <v>1601349379.581186</v>
       </c>
     </row>
     <row r="265">
@@ -3348,10 +3348,10 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="B265" t="n">
-        <v>1849.832776293931</v>
+        <v>1603.463038854315</v>
       </c>
       <c r="C265" t="n">
-        <v>1849832776.293931</v>
+        <v>1603463038.854315</v>
       </c>
     </row>
     <row r="266">
@@ -3359,10 +3359,10 @@
         <v>0.57</v>
       </c>
       <c r="B266" t="n">
-        <v>1852.062547580062</v>
+        <v>1605.560847058437</v>
       </c>
       <c r="C266" t="n">
-        <v>1852062547.580062</v>
+        <v>1605560847.058437</v>
       </c>
     </row>
     <row r="267">
@@ -3370,10 +3370,10 @@
         <v>0.575</v>
       </c>
       <c r="B267" t="n">
-        <v>1854.275500667476</v>
+        <v>1607.64306042215</v>
       </c>
       <c r="C267" t="n">
-        <v>1854275500.667476</v>
+        <v>1607643060.42215</v>
       </c>
     </row>
     <row r="268">
@@ -3381,10 +3381,10 @@
         <v>0.58</v>
       </c>
       <c r="B268" t="n">
-        <v>1856.471906986803</v>
+        <v>1609.709928850263</v>
       </c>
       <c r="C268" t="n">
-        <v>1856471906.986803</v>
+        <v>1609709928.850263</v>
       </c>
     </row>
     <row r="269">
@@ -3392,10 +3392,10 @@
         <v>0.585</v>
       </c>
       <c r="B269" t="n">
-        <v>1858.652031294705</v>
+        <v>1611.76169613279</v>
       </c>
       <c r="C269" t="n">
-        <v>1858652031.294705</v>
+        <v>1611761696.13279</v>
       </c>
     </row>
     <row r="270">
@@ -3403,10 +3403,10 @@
         <v>0.59</v>
       </c>
       <c r="B270" t="n">
-        <v>1860.816131893405</v>
+        <v>1613.798600145329</v>
       </c>
       <c r="C270" t="n">
-        <v>1860816131.893405</v>
+        <v>1613798600.145329</v>
       </c>
     </row>
     <row r="271">
@@ -3414,10 +3414,10 @@
         <v>0.595</v>
       </c>
       <c r="B271" t="n">
-        <v>1862.964460841207</v>
+        <v>1615.820873041226</v>
       </c>
       <c r="C271" t="n">
-        <v>1862964460.841208</v>
+        <v>1615820873.041226</v>
       </c>
     </row>
     <row r="272">
@@ -3425,10 +3425,10 @@
         <v>0.6</v>
       </c>
       <c r="B272" t="n">
-        <v>1865.097264154436</v>
+        <v>1617.828741435956</v>
       </c>
       <c r="C272" t="n">
-        <v>1865097264.154436</v>
+        <v>1617828741.435956</v>
       </c>
     </row>
     <row r="273">
@@ -3436,10 +3436,10 @@
         <v>0.605</v>
       </c>
       <c r="B273" t="n">
-        <v>1867.214782001231</v>
+        <v>1619.822426584069</v>
       </c>
       <c r="C273" t="n">
-        <v>1867214782.001231</v>
+        <v>1619822426.584069</v>
       </c>
     </row>
     <row r="274">
@@ -3447,10 +3447,10 @@
         <v>0.61</v>
       </c>
       <c r="B274" t="n">
-        <v>1869.317248887573</v>
+        <v>1621.802144549078</v>
       </c>
       <c r="C274" t="n">
-        <v>1869317248.887573</v>
+        <v>1621802144.549078</v>
       </c>
     </row>
     <row r="275">
@@ -3458,10 +3458,10 @@
         <v>0.615</v>
       </c>
       <c r="B275" t="n">
-        <v>1871.404893835932</v>
+        <v>1623.768106366626</v>
       </c>
       <c r="C275" t="n">
-        <v>1871404893.835932</v>
+        <v>1623768106.366626</v>
       </c>
     </row>
     <row r="276">
@@ -3469,10 +3469,10 @@
         <v>0.62</v>
       </c>
       <c r="B276" t="n">
-        <v>1873.477940556867</v>
+        <v>1625.720518201232</v>
       </c>
       <c r="C276" t="n">
-        <v>1873477940.556867</v>
+        <v>1625720518.201232</v>
       </c>
     </row>
     <row r="277">
@@ -3480,10 +3480,10 @@
         <v>0.625</v>
       </c>
       <c r="B277" t="n">
-        <v>1875.536607613922</v>
+        <v>1627.659581496945</v>
       </c>
       <c r="C277" t="n">
-        <v>1875536607.613922</v>
+        <v>1627659581.496945</v>
       </c>
     </row>
     <row r="278">
@@ -3491,10 +3491,10 @@
         <v>0.63</v>
       </c>
       <c r="B278" t="n">
-        <v>1877.58110858214</v>
+        <v>1629.585493122165</v>
       </c>
       <c r="C278" t="n">
-        <v>1877581108.58214</v>
+        <v>1629585493.122165</v>
       </c>
     </row>
     <row r="279">
@@ -3502,10 +3502,10 @@
         <v>0.635</v>
       </c>
       <c r="B279" t="n">
-        <v>1879.611652200464</v>
+        <v>1631.498445508918</v>
       </c>
       <c r="C279" t="n">
-        <v>1879611652.200464</v>
+        <v>1631498445.508918</v>
       </c>
     </row>
     <row r="280">
@@ -3513,10 +3513,10 @@
         <v>0.64</v>
       </c>
       <c r="B280" t="n">
-        <v>1881.628442518333</v>
+        <v>1633.39862678683</v>
       </c>
       <c r="C280" t="n">
-        <v>1881628442.518333</v>
+        <v>1633398626.78683</v>
       </c>
     </row>
     <row r="281">
@@ -3524,10 +3524,10 @@
         <v>0.645</v>
       </c>
       <c r="B281" t="n">
-        <v>1883.631679036728</v>
+        <v>1635.286220912044</v>
       </c>
       <c r="C281" t="n">
-        <v>1883631679.036727</v>
+        <v>1635286220.912044</v>
       </c>
     </row>
     <row r="282">
@@ -3535,10 +3535,10 @@
         <v>0.65</v>
       </c>
       <c r="B282" t="n">
-        <v>1885.62155684391</v>
+        <v>1637.161407791311</v>
       </c>
       <c r="C282" t="n">
-        <v>1885621556.84391</v>
+        <v>1637161407.791311</v>
       </c>
     </row>
     <row r="283">
@@ -3546,10 +3546,10 @@
         <v>0.655</v>
       </c>
       <c r="B283" t="n">
-        <v>1887.598266746112</v>
+        <v>1639.024363401465</v>
       </c>
       <c r="C283" t="n">
-        <v>1887598266.746112</v>
+        <v>1639024363.401465</v>
       </c>
     </row>
     <row r="284">
@@ -3557,10 +3557,10 @@
         <v>0.66</v>
       </c>
       <c r="B284" t="n">
-        <v>1889.56199539338</v>
+        <v>1640.875259904498</v>
       </c>
       <c r="C284" t="n">
-        <v>1889561995.39338</v>
+        <v>1640875259.904498</v>
       </c>
     </row>
     <row r="285">
@@ -3568,10 +3568,10 @@
         <v>0.665</v>
       </c>
       <c r="B285" t="n">
-        <v>1891.512925400805</v>
+        <v>1642.714265758415</v>
       </c>
       <c r="C285" t="n">
-        <v>1891512925.400805</v>
+        <v>1642714265.758415</v>
       </c>
     </row>
     <row r="286">
@@ -3579,10 +3579,10 @@
         <v>0.67</v>
       </c>
       <c r="B286" t="n">
-        <v>1893.45123546533</v>
+        <v>1644.541545824065</v>
       </c>
       <c r="C286" t="n">
-        <v>1893451235.46533</v>
+        <v>1644541545.824065</v>
       </c>
     </row>
     <row r="287">
@@ -3590,10 +3590,10 @@
         <v>0.675</v>
       </c>
       <c r="B287" t="n">
-        <v>1895.377100478338</v>
+        <v>1646.357261468122</v>
       </c>
       <c r="C287" t="n">
-        <v>1895377100.478338</v>
+        <v>1646357261.468122</v>
       </c>
     </row>
     <row r="288">
@@ -3601,10 +3601,10 @@
         <v>0.68</v>
       </c>
       <c r="B288" t="n">
-        <v>1897.29069163419</v>
+        <v>1648.161570662377</v>
       </c>
       <c r="C288" t="n">
-        <v>1897290691.63419</v>
+        <v>1648161570.662377</v>
       </c>
     </row>
     <row r="289">
@@ -3612,10 +3612,10 @@
         <v>0.6850000000000001</v>
       </c>
       <c r="B289" t="n">
-        <v>1899.1921765349</v>
+        <v>1649.9546280795</v>
       </c>
       <c r="C289" t="n">
-        <v>1899192176.5349</v>
+        <v>1649954628.079499</v>
       </c>
     </row>
     <row r="290">
@@ -3623,10 +3623,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="B290" t="n">
-        <v>1901.081719291107</v>
+        <v>1651.736585185428</v>
       </c>
       <c r="C290" t="n">
-        <v>1901081719.291107</v>
+        <v>1651736585.185428</v>
       </c>
     </row>
     <row r="291">
@@ -3634,10 +3634,10 @@
         <v>0.695</v>
       </c>
       <c r="B291" t="n">
-        <v>1902.959480619496</v>
+        <v>1653.507590328517</v>
       </c>
       <c r="C291" t="n">
-        <v>1902959480.619496</v>
+        <v>1653507590.328517</v>
       </c>
     </row>
     <row r="292">
@@ -3645,10 +3645,10 @@
         <v>0.7</v>
       </c>
       <c r="B292" t="n">
-        <v>1904.825617936821</v>
+        <v>1655.267788825592</v>
       </c>
       <c r="C292" t="n">
-        <v>1904825617.936821</v>
+        <v>1655267788.825592</v>
       </c>
     </row>
     <row r="293">
@@ -3656,10 +3656,10 @@
         <v>0.705</v>
       </c>
       <c r="B293" t="n">
-        <v>1906.68028545068</v>
+        <v>1657.017323045028</v>
       </c>
       <c r="C293" t="n">
-        <v>1906680285.45068</v>
+        <v>1657017323.045028</v>
       </c>
     </row>
     <row r="294">
@@ -3667,10 +3667,10 @@
         <v>0.71</v>
       </c>
       <c r="B294" t="n">
-        <v>1908.523634247161</v>
+        <v>1658.756332486982</v>
       </c>
       <c r="C294" t="n">
-        <v>1908523634.247161</v>
+        <v>1658756332.486982</v>
       </c>
     </row>
     <row r="295">
@@ -3678,10 +3678,10 @@
         <v>0.715</v>
       </c>
       <c r="B295" t="n">
-        <v>1910.355812375496</v>
+        <v>1660.484953860896</v>
       </c>
       <c r="C295" t="n">
-        <v>1910355812.375496</v>
+        <v>1660484953.860896</v>
       </c>
     </row>
     <row r="296">
@@ -3689,10 +3689,10 @@
         <v>0.72</v>
       </c>
       <c r="B296" t="n">
-        <v>1912.176964929854</v>
+        <v>1662.203321160381</v>
       </c>
       <c r="C296" t="n">
-        <v>1912176964.929853</v>
+        <v>1662203321.160381</v>
       </c>
     </row>
     <row r="297">
@@ -3700,10 +3700,10 @@
         <v>0.725</v>
       </c>
       <c r="B297" t="n">
-        <v>1913.987234128364</v>
+        <v>1663.911565735583</v>
       </c>
       <c r="C297" t="n">
-        <v>1913987234.128364</v>
+        <v>1663911565.735583</v>
       </c>
     </row>
     <row r="298">
@@ -3711,10 +3711,10 @@
         <v>0.73</v>
       </c>
       <c r="B298" t="n">
-        <v>1915.786759389516</v>
+        <v>1665.60981636314</v>
       </c>
       <c r="C298" t="n">
-        <v>1915786759.389516</v>
+        <v>1665609816.36314</v>
       </c>
     </row>
     <row r="299">
@@ -3722,10 +3722,10 @@
         <v>0.735</v>
       </c>
       <c r="B299" t="n">
-        <v>1917.575677406006</v>
+        <v>1667.298199313826</v>
       </c>
       <c r="C299" t="n">
-        <v>1917575677.406006</v>
+        <v>1667298199.313826</v>
       </c>
     </row>
     <row r="300">
@@ -3733,10 +3733,10 @@
         <v>0.74</v>
       </c>
       <c r="B300" t="n">
-        <v>1919.354122216158</v>
+        <v>1668.976838417963</v>
       </c>
       <c r="C300" t="n">
-        <v>1919354122.216158</v>
+        <v>1668976838.417963</v>
       </c>
     </row>
     <row r="301">
@@ -3744,10 +3744,10 @@
         <v>0.745</v>
       </c>
       <c r="B301" t="n">
-        <v>1921.122225273</v>
+        <v>1670.645855128701</v>
       </c>
       <c r="C301" t="n">
-        <v>1921122225.273</v>
+        <v>1670645855.128701</v>
       </c>
     </row>
     <row r="302">
@@ -3755,10 +3755,10 @@
         <v>0.75</v>
       </c>
       <c r="B302" t="n">
-        <v>1922.880115511095</v>
+        <v>1672.305368583248</v>
       </c>
       <c r="C302" t="n">
-        <v>1922880115.511095</v>
+        <v>1672305368.583248</v>
       </c>
     </row>
     <row r="303">
@@ -3766,10 +3766,10 @@
         <v>0.755</v>
       </c>
       <c r="B303" t="n">
-        <v>1924.62791941121</v>
+        <v>1673.955495662119</v>
       </c>
       <c r="C303" t="n">
-        <v>1924627919.41121</v>
+        <v>1673955495.662119</v>
       </c>
     </row>
     <row r="304">
@@ -3777,10 +3777,10 @@
         <v>0.76</v>
       </c>
       <c r="B304" t="n">
-        <v>1926.365761062908</v>
+        <v>1675.596351046496</v>
       </c>
       <c r="C304" t="n">
-        <v>1926365761.062908</v>
+        <v>1675596351.046496</v>
       </c>
     </row>
     <row r="305">
@@ -3788,10 +3788,10 @@
         <v>0.765</v>
       </c>
       <c r="B305" t="n">
-        <v>1928.093762225148</v>
+        <v>1677.228047273758</v>
       </c>
       <c r="C305" t="n">
-        <v>1928093762.225148</v>
+        <v>1677228047.273758</v>
       </c>
     </row>
     <row r="306">
@@ -3799,10 +3799,10 @@
         <v>0.77</v>
       </c>
       <c r="B306" t="n">
-        <v>1929.812042384955</v>
+        <v>1678.850694791258</v>
       </c>
       <c r="C306" t="n">
-        <v>1929812042.384955</v>
+        <v>1678850694.791258</v>
       </c>
     </row>
     <row r="307">
@@ -3810,10 +3810,10 @@
         <v>0.775</v>
       </c>
       <c r="B307" t="n">
-        <v>1931.520718814253</v>
+        <v>1680.464402008414</v>
       </c>
       <c r="C307" t="n">
-        <v>1931520718.814253</v>
+        <v>1680464402.008414</v>
       </c>
     </row>
     <row r="308">
@@ -3821,10 +3821,10 @@
         <v>0.78</v>
       </c>
       <c r="B308" t="n">
-        <v>1933.219906624915</v>
+        <v>1682.06927534717</v>
       </c>
       <c r="C308" t="n">
-        <v>1933219906.624915</v>
+        <v>1682069275.34717</v>
       </c>
     </row>
     <row r="309">
@@ -3832,10 +3832,10 @@
         <v>0.785</v>
       </c>
       <c r="B309" t="n">
-        <v>1934.909718822097</v>
+        <v>1683.665419290902</v>
       </c>
       <c r="C309" t="n">
-        <v>1934909718.822097</v>
+        <v>1683665419.290902</v>
       </c>
     </row>
     <row r="310">
@@ -3843,10 +3843,10 @@
         <v>0.79</v>
       </c>
       <c r="B310" t="n">
-        <v>1936.590266355936</v>
+        <v>1685.252936431807</v>
       </c>
       <c r="C310" t="n">
-        <v>1936590266.355936</v>
+        <v>1685252936.431807</v>
       </c>
     </row>
     <row r="311">
@@ -3854,10 +3854,10 @@
         <v>0.795</v>
       </c>
       <c r="B311" t="n">
-        <v>1938.261658171651</v>
+        <v>1686.831927516847</v>
       </c>
       <c r="C311" t="n">
-        <v>1938261658.171651</v>
+        <v>1686831927.516847</v>
       </c>
     </row>
     <row r="312">
@@ -3865,10 +3865,10 @@
         <v>0.8</v>
       </c>
       <c r="B312" t="n">
-        <v>1939.924001258122</v>
+        <v>1688.402491492301</v>
       </c>
       <c r="C312" t="n">
-        <v>1939924001.258121</v>
+        <v>1688402491.492301</v>
       </c>
     </row>
     <row r="313">
@@ -3876,10 +3876,10 @@
         <v>0.805</v>
       </c>
       <c r="B313" t="n">
-        <v>1941.57740069499</v>
+        <v>1689.964725546962</v>
       </c>
       <c r="C313" t="n">
-        <v>1941577400.69499</v>
+        <v>1689964725.546962</v>
       </c>
     </row>
     <row r="314">
@@ -3887,10 +3887,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B314" t="n">
-        <v>1943.221959698348</v>
+        <v>1691.518725154038</v>
       </c>
       <c r="C314" t="n">
-        <v>1943221959.698348</v>
+        <v>1691518725.154038</v>
       </c>
     </row>
     <row r="315">
@@ -3898,10 +3898,10 @@
         <v>0.8149999999999999</v>
       </c>
       <c r="B315" t="n">
-        <v>1944.857779665055</v>
+        <v>1693.064584111809</v>
       </c>
       <c r="C315" t="n">
-        <v>1944857779.665055</v>
+        <v>1693064584.111809</v>
       </c>
     </row>
     <row r="316">
@@ -3909,10 +3909,10 @@
         <v>0.82</v>
       </c>
       <c r="B316" t="n">
-        <v>1946.484960215737</v>
+        <v>1694.602394583072</v>
       </c>
       <c r="C316" t="n">
-        <v>1946484960.215737</v>
+        <v>1694602394.583072</v>
       </c>
     </row>
     <row r="317">
@@ -3920,10 +3920,10 @@
         <v>0.825</v>
       </c>
       <c r="B317" t="n">
-        <v>1948.103599236513</v>
+        <v>1696.132247133423</v>
       </c>
       <c r="C317" t="n">
-        <v>1948103599.236513</v>
+        <v>1696132247.133423</v>
       </c>
     </row>
     <row r="318">
@@ -3931,10 +3931,10 @@
         <v>0.83</v>
       </c>
       <c r="B318" t="n">
-        <v>1949.713792919496</v>
+        <v>1697.654230768419</v>
       </c>
       <c r="C318" t="n">
-        <v>1949713792.919497</v>
+        <v>1697654230.768419</v>
       </c>
     </row>
     <row r="319">
@@ -3942,10 +3942,10 @@
         <v>0.835</v>
       </c>
       <c r="B319" t="n">
-        <v>1951.315635802114</v>
+        <v>1699.168432969656</v>
       </c>
       <c r="C319" t="n">
-        <v>1951315635.802114</v>
+        <v>1699168432.969656</v>
       </c>
     </row>
     <row r="320">
@@ -3953,10 +3953,10 @@
         <v>0.84</v>
       </c>
       <c r="B320" t="n">
-        <v>1952.909220805278</v>
+        <v>1700.674939729806</v>
       </c>
       <c r="C320" t="n">
-        <v>1952909220.805278</v>
+        <v>1700674939.729806</v>
       </c>
     </row>
     <row r="321">
@@ -3964,10 +3964,10 @@
         <v>0.845</v>
       </c>
       <c r="B321" t="n">
-        <v>1954.494639270465</v>
+        <v>1702.173835586639</v>
       </c>
       <c r="C321" t="n">
-        <v>1954494639.270465</v>
+        <v>1702173835.586639</v>
       </c>
     </row>
     <row r="322">
@@ -3975,10 +3975,10 @@
         <v>0.85</v>
       </c>
       <c r="B322" t="n">
-        <v>1956.071980995719</v>
+        <v>1703.665203656077</v>
       </c>
       <c r="C322" t="n">
-        <v>1956071980.995719</v>
+        <v>1703665203.656076</v>
       </c>
     </row>
     <row r="323">
@@ -3986,10 +3986,10 @@
         <v>0.855</v>
       </c>
       <c r="B323" t="n">
-        <v>1957.64133427064</v>
+        <v>1705.149125664303</v>
       </c>
       <c r="C323" t="n">
-        <v>1957641334.27064</v>
+        <v>1705149125.664303</v>
       </c>
     </row>
     <row r="324">
@@ -3997,10 +3997,10 @@
         <v>0.86</v>
       </c>
       <c r="B324" t="n">
-        <v>1959.202785910367</v>
+        <v>1706.625681978968</v>
       </c>
       <c r="C324" t="n">
-        <v>1959202785.910367</v>
+        <v>1706625681.978968</v>
       </c>
     </row>
     <row r="325">
@@ -4008,10 +4008,10 @@
         <v>0.865</v>
       </c>
       <c r="B325" t="n">
-        <v>1960.756421288617</v>
+        <v>1708.094951639515</v>
       </c>
       <c r="C325" t="n">
-        <v>1960756421.288617</v>
+        <v>1708094951.639515</v>
       </c>
     </row>
     <row r="326">
@@ -4019,10 +4019,10 @@
         <v>0.87</v>
       </c>
       <c r="B326" t="n">
-        <v>1962.302324369781</v>
+        <v>1709.557012386657</v>
       </c>
       <c r="C326" t="n">
-        <v>1962302324.369781</v>
+        <v>1709557012.386657</v>
       </c>
     </row>
     <row r="327">
@@ -4030,10 +4030,10 @@
         <v>0.875</v>
       </c>
       <c r="B327" t="n">
-        <v>1963.840577740143</v>
+        <v>1711.011940691035</v>
       </c>
       <c r="C327" t="n">
-        <v>1963840577.740143</v>
+        <v>1711011940.691035</v>
       </c>
     </row>
     <row r="328">
@@ -4041,10 +4041,10 @@
         <v>0.88</v>
       </c>
       <c r="B328" t="n">
-        <v>1965.371262638217</v>
+        <v>1712.459811781089</v>
       </c>
       <c r="C328" t="n">
-        <v>1965371262.638217</v>
+        <v>1712459811.781089</v>
       </c>
     </row>
     <row r="329">
@@ -4052,10 +4052,10 @@
         <v>0.885</v>
       </c>
       <c r="B329" t="n">
-        <v>1966.894458984263</v>
+        <v>1713.900699670152</v>
       </c>
       <c r="C329" t="n">
-        <v>1966894458.984263</v>
+        <v>1713900699.670152</v>
       </c>
     </row>
     <row r="330">
@@ -4063,10 +4063,10 @@
         <v>0.89</v>
       </c>
       <c r="B330" t="n">
-        <v>1968.41024540898</v>
+        <v>1715.334677182816</v>
       </c>
       <c r="C330" t="n">
-        <v>1968410245.40898</v>
+        <v>1715334677.182816</v>
       </c>
     </row>
     <row r="331">
@@ -4074,10 +4074,10 @@
         <v>0.895</v>
       </c>
       <c r="B331" t="n">
-        <v>1969.918699281429</v>
+        <v>1716.761815980574</v>
       </c>
       <c r="C331" t="n">
-        <v>1969918699.281429</v>
+        <v>1716761815.980574</v>
       </c>
     </row>
     <row r="332">
@@ -4085,10 +4085,10 @@
         <v>0.9</v>
       </c>
       <c r="B332" t="n">
-        <v>1971.419896736189</v>
+        <v>1718.182186586771</v>
       </c>
       <c r="C332" t="n">
-        <v>1971419896.736189</v>
+        <v>1718182186.586771</v>
       </c>
     </row>
     <row r="333">
@@ -4096,10 +4096,10 @@
         <v>0.905</v>
       </c>
       <c r="B333" t="n">
-        <v>1972.913912699793</v>
+        <v>1719.595858410884</v>
       </c>
       <c r="C333" t="n">
-        <v>1972913912.699793</v>
+        <v>1719595858.410884</v>
       </c>
     </row>
     <row r="334">
@@ -4107,10 +4107,10 @@
         <v>0.91</v>
       </c>
       <c r="B334" t="n">
-        <v>1974.40082091644</v>
+        <v>1721.002899772156</v>
       </c>
       <c r="C334" t="n">
-        <v>1974400820.91644</v>
+        <v>1721002899.772156</v>
       </c>
     </row>
     <row r="335">
@@ -4118,10 +4118,10 @@
         <v>0.915</v>
       </c>
       <c r="B335" t="n">
-        <v>1975.880693973038</v>
+        <v>1722.403377922596</v>
       </c>
       <c r="C335" t="n">
-        <v>1975880693.973037</v>
+        <v>1722403377.922596</v>
       </c>
     </row>
     <row r="336">
@@ -4129,10 +4129,10 @@
         <v>0.92</v>
       </c>
       <c r="B336" t="n">
-        <v>1977.35360332357</v>
+        <v>1723.797359069378</v>
       </c>
       <c r="C336" t="n">
-        <v>1977353603.32357</v>
+        <v>1723797359.069378</v>
       </c>
     </row>
     <row r="337">
@@ -4140,10 +4140,10 @@
         <v>0.925</v>
       </c>
       <c r="B337" t="n">
-        <v>1978.819619312827</v>
+        <v>1725.184908396645</v>
       </c>
       <c r="C337" t="n">
-        <v>1978819619.312827</v>
+        <v>1725184908.396645</v>
       </c>
     </row>
     <row r="338">
@@ -4151,10 +4151,10 @@
         <v>0.93</v>
       </c>
       <c r="B338" t="n">
-        <v>1980.278811199512</v>
+        <v>1726.566090086748</v>
       </c>
       <c r="C338" t="n">
-        <v>1980278811.199512</v>
+        <v>1726566090.086748</v>
       </c>
     </row>
     <row r="339">
@@ -4162,10 +4162,10 @@
         <v>0.9350000000000001</v>
       </c>
       <c r="B339" t="n">
-        <v>1981.731247178742</v>
+        <v>1727.940967340929</v>
       </c>
       <c r="C339" t="n">
-        <v>1981731247.178742</v>
+        <v>1727940967.340929</v>
       </c>
     </row>
     <row r="340">
@@ -4173,10 +4173,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="B340" t="n">
-        <v>1983.176994403973</v>
+        <v>1729.309602399468</v>
       </c>
       <c r="C340" t="n">
-        <v>1983176994.403973</v>
+        <v>1729309602.399468</v>
       </c>
     </row>
     <row r="341">
@@ -4184,10 +4184,10 @@
         <v>0.945</v>
       </c>
       <c r="B341" t="n">
-        <v>1984.616119008351</v>
+        <v>1730.672056561318</v>
       </c>
       <c r="C341" t="n">
-        <v>1984616119.008351</v>
+        <v>1730672056.561318</v>
       </c>
     </row>
     <row r="342">
@@ -4195,10 +4195,10 @@
         <v>0.95</v>
       </c>
       <c r="B342" t="n">
-        <v>1986.048686125519</v>
+        <v>1732.028390203232</v>
       </c>
       <c r="C342" t="n">
-        <v>1986048686.125519</v>
+        <v>1732028390.203232</v>
       </c>
     </row>
     <row r="343">
@@ -4206,10 +4206,10 @@
         <v>0.955</v>
       </c>
       <c r="B343" t="n">
-        <v>1987.47475990989</v>
+        <v>1733.378662798399</v>
       </c>
       <c r="C343" t="n">
-        <v>1987474759.90989</v>
+        <v>1733378662.798399</v>
       </c>
     </row>
     <row r="344">
@@ -4217,10 +4217,10 @@
         <v>0.96</v>
       </c>
       <c r="B344" t="n">
-        <v>1988.89440355641</v>
+        <v>1734.722932934621</v>
       </c>
       <c r="C344" t="n">
-        <v>1988894403.556411</v>
+        <v>1734722932.934621</v>
       </c>
     </row>
     <row r="345">
@@ -4228,10 +4228,10 @@
         <v>0.965</v>
       </c>
       <c r="B345" t="n">
-        <v>1990.307679319818</v>
+        <v>1736.061258332018</v>
       </c>
       <c r="C345" t="n">
-        <v>1990307679.319818</v>
+        <v>1736061258.332018</v>
       </c>
     </row>
     <row r="346">
@@ -4239,10 +4239,10 @@
         <v>0.97</v>
       </c>
       <c r="B346" t="n">
-        <v>1991.71464853342</v>
+        <v>1737.393695860298</v>
       </c>
       <c r="C346" t="n">
-        <v>1991714648.53342</v>
+        <v>1737393695.860298</v>
       </c>
     </row>
     <row r="347">
@@ -4250,10 +4250,10 @@
         <v>0.975</v>
       </c>
       <c r="B347" t="n">
-        <v>1993.115371627395</v>
+        <v>1738.720301555593</v>
       </c>
       <c r="C347" t="n">
-        <v>1993115371.627395</v>
+        <v>1738720301.555593</v>
       </c>
     </row>
     <row r="348">
@@ -4261,10 +4261,10 @@
         <v>0.98</v>
       </c>
       <c r="B348" t="n">
-        <v>1994.509908146652</v>
+        <v>1740.041130636878</v>
       </c>
       <c r="C348" t="n">
-        <v>1994509908.146652</v>
+        <v>1740041130.636878</v>
       </c>
     </row>
     <row r="349">
@@ -4272,10 +4272,10 @@
         <v>0.985</v>
       </c>
       <c r="B349" t="n">
-        <v>1995.898316768233</v>
+        <v>1741.356237521984</v>
       </c>
       <c r="C349" t="n">
-        <v>1995898316.768233</v>
+        <v>1741356237.521984</v>
       </c>
     </row>
     <row r="350">
@@ -4283,10 +4283,10 @@
         <v>0.99</v>
       </c>
       <c r="B350" t="n">
-        <v>1997.280655318295</v>
+        <v>1742.665675843218</v>
       </c>
       <c r="C350" t="n">
-        <v>1997280655.318295</v>
+        <v>1742665675.843218</v>
       </c>
     </row>
     <row r="351">
@@ -4294,10 +4294,10 @@
         <v>0.995</v>
       </c>
       <c r="B351" t="n">
-        <v>1998.656980788677</v>
+        <v>1743.969498462603</v>
       </c>
       <c r="C351" t="n">
-        <v>1998656980.788677</v>
+        <v>1743969498.462603</v>
       </c>
     </row>
     <row r="352">
@@ -4305,10 +4305,10 @@
         <v>1</v>
       </c>
       <c r="B352" t="n">
-        <v>2000.027349353058</v>
+        <v>1745.267757486745</v>
       </c>
       <c r="C352" t="n">
-        <v>2000027349.353058</v>
+        <v>1745267757.486745</v>
       </c>
     </row>
     <row r="353">
@@ -4316,10 +4316,10 @@
         <v>1.005</v>
       </c>
       <c r="B353" t="n">
-        <v>2001.391816382726</v>
+        <v>1746.56050428134</v>
       </c>
       <c r="C353" t="n">
-        <v>2001391816.382726</v>
+        <v>1746560504.28134</v>
       </c>
     </row>
     <row r="354">
@@ -4327,10 +4327,10 @@
         <v>1.01</v>
       </c>
       <c r="B354" t="n">
-        <v>2002.750436461963</v>
+        <v>1747.847789485337</v>
       </c>
       <c r="C354" t="n">
-        <v>2002750436.461963</v>
+        <v>1747847789.485337</v>
       </c>
     </row>
     <row r="355">
@@ -4338,10 +4338,10 @@
         <v>1.015</v>
       </c>
       <c r="B355" t="n">
-        <v>2004.103263403069</v>
+        <v>1749.129663024752</v>
       </c>
       <c r="C355" t="n">
-        <v>2004103263.403069</v>
+        <v>1749129663.024752</v>
       </c>
     </row>
     <row r="356">
@@ -4349,10 +4349,10 @@
         <v>1.02</v>
       </c>
       <c r="B356" t="n">
-        <v>2005.450350261017</v>
+        <v>1750.406174126167</v>
       </c>
       <c r="C356" t="n">
-        <v>2005450350.261017</v>
+        <v>1750406174.126167</v>
       </c>
     </row>
     <row r="357">
@@ -4360,10 +4360,10 @@
         <v>1.025</v>
       </c>
       <c r="B357" t="n">
-        <v>2006.791749347761</v>
+        <v>1751.67737132989</v>
       </c>
       <c r="C357" t="n">
-        <v>2006791749.347761</v>
+        <v>1751677371.32989</v>
       </c>
     </row>
     <row r="358">
@@ -4371,10 +4371,10 @@
         <v>1.03</v>
       </c>
       <c r="B358" t="n">
-        <v>2008.127512246214</v>
+        <v>1752.943302502823</v>
       </c>
       <c r="C358" t="n">
-        <v>2008127512.246214</v>
+        <v>1752943302.502823</v>
       </c>
     </row>
     <row r="359">
@@ -4382,10 +4382,10 @@
         <v>1.035</v>
       </c>
       <c r="B359" t="n">
-        <v>2009.457689823885</v>
+        <v>1754.204014851018</v>
       </c>
       <c r="C359" t="n">
-        <v>2009457689.823885</v>
+        <v>1754204014.851017</v>
       </c>
     </row>
     <row r="360">
@@ -4393,10 +4393,10 @@
         <v>1.04</v>
       </c>
       <c r="B360" t="n">
-        <v>2010.782332246205</v>
+        <v>1755.459554931937</v>
       </c>
       <c r="C360" t="n">
-        <v>2010782332.246205</v>
+        <v>1755459554.931937</v>
       </c>
     </row>
     <row r="361">
@@ -4404,10 +4404,10 @@
         <v>1.045</v>
       </c>
       <c r="B361" t="n">
-        <v>2012.101488989535</v>
+        <v>1756.709968666435</v>
       </c>
       <c r="C361" t="n">
-        <v>2012101488.989535</v>
+        <v>1756709968.666435</v>
       </c>
     </row>
     <row r="362">
@@ -4415,10 +4415,10 @@
         <v>1.05</v>
       </c>
       <c r="B362" t="n">
-        <v>2013.415208853881</v>
+        <v>1757.95530135046</v>
       </c>
       <c r="C362" t="n">
-        <v>2013415208.853881</v>
+        <v>1757955301.35046</v>
       </c>
     </row>
     <row r="363">
@@ -4426,10 +4426,10 @@
         <v>1.055</v>
       </c>
       <c r="B363" t="n">
-        <v>2014.723539975305</v>
+        <v>1759.195597666485</v>
       </c>
       <c r="C363" t="n">
-        <v>2014723539.975305</v>
+        <v>1759195597.666485</v>
       </c>
     </row>
     <row r="364">
@@ -4437,10 +4437,10 @@
         <v>1.06</v>
       </c>
       <c r="B364" t="n">
-        <v>2016.026529838059</v>
+        <v>1760.430901694676</v>
       </c>
       <c r="C364" t="n">
-        <v>2016026529.838059</v>
+        <v>1760430901.694676</v>
       </c>
     </row>
     <row r="365">
@@ -4448,10 +4448,10 @@
         <v>1.065</v>
       </c>
       <c r="B365" t="n">
-        <v>2017.324225286435</v>
+        <v>1761.661256923808</v>
       </c>
       <c r="C365" t="n">
-        <v>2017324225.286435</v>
+        <v>1761661256.923808</v>
       </c>
     </row>
     <row r="366">
@@ -4459,10 +4459,10 @@
         <v>1.07</v>
       </c>
       <c r="B366" t="n">
-        <v>2018.616672536351</v>
+        <v>1762.886706261932</v>
       </c>
       <c r="C366" t="n">
-        <v>2018616672.536351</v>
+        <v>1762886706.261932</v>
       </c>
     </row>
     <row r="367">
@@ -4470,10 +4470,10 @@
         <v>1.075</v>
       </c>
       <c r="B367" t="n">
-        <v>2019.903917186666</v>
+        <v>1764.107292046801</v>
       </c>
       <c r="C367" t="n">
-        <v>2019903917.186666</v>
+        <v>1764107292.046801</v>
       </c>
     </row>
     <row r="368">
@@ -4481,10 +4481,10 @@
         <v>1.08</v>
       </c>
       <c r="B368" t="n">
-        <v>2021.18600423025</v>
+        <v>1765.323056056057</v>
       </c>
       <c r="C368" t="n">
-        <v>2021186004.23025</v>
+        <v>1765323056.056057</v>
       </c>
     </row>
     <row r="369">
@@ -4492,10 +4492,10 @@
         <v>1.085</v>
       </c>
       <c r="B369" t="n">
-        <v>2022.462978064797</v>
+        <v>1766.534039517197</v>
       </c>
       <c r="C369" t="n">
-        <v>2022462978.064797</v>
+        <v>1766534039.517197</v>
       </c>
     </row>
     <row r="370">
@@ -4503,10 +4503,10 @@
         <v>1.09</v>
       </c>
       <c r="B370" t="n">
-        <v>2023.734882503398</v>
+        <v>1767.740283117314</v>
       </c>
       <c r="C370" t="n">
-        <v>2023734882.503398</v>
+        <v>1767740283.117314</v>
       </c>
     </row>
     <row r="371">
@@ -4514,10 +4514,10 @@
         <v>1.095</v>
       </c>
       <c r="B371" t="n">
-        <v>2025.001760784883</v>
+        <v>1768.941827012618</v>
       </c>
       <c r="C371" t="n">
-        <v>2025001760.784883</v>
+        <v>1768941827.012618</v>
       </c>
     </row>
     <row r="372">
@@ -4525,10 +4525,10 @@
         <v>1.1</v>
       </c>
       <c r="B372" t="n">
-        <v>2026.263655583926</v>
+        <v>1770.138710837749</v>
       </c>
       <c r="C372" t="n">
-        <v>2026263655.583926</v>
+        <v>1770138710.837749</v>
       </c>
     </row>
     <row r="373">
@@ -4536,10 +4536,10 @@
         <v>1.105</v>
       </c>
       <c r="B373" t="n">
-        <v>2027.520609020937</v>
+        <v>1771.33097371489</v>
       </c>
       <c r="C373" t="n">
-        <v>2027520609.020937</v>
+        <v>1771330973.71489</v>
       </c>
     </row>
     <row r="374">
@@ -4547,10 +4547,10 @@
         <v>1.11</v>
       </c>
       <c r="B374" t="n">
-        <v>2028.772662671725</v>
+        <v>1772.518654262675</v>
       </c>
       <c r="C374" t="n">
-        <v>2028772662.671725</v>
+        <v>1772518654.262675</v>
       </c>
     </row>
     <row r="375">
@@ -4558,10 +4558,10 @@
         <v>1.115</v>
       </c>
       <c r="B375" t="n">
-        <v>2030.019857576962</v>
+        <v>1773.701790604897</v>
       </c>
       <c r="C375" t="n">
-        <v>2030019857.576962</v>
+        <v>1773701790.604897</v>
       </c>
     </row>
     <row r="376">
@@ -4569,10 +4569,10 @@
         <v>1.12</v>
       </c>
       <c r="B376" t="n">
-        <v>2031.262234251431</v>
+        <v>1774.880420379046</v>
       </c>
       <c r="C376" t="n">
-        <v>2031262234.251431</v>
+        <v>1774880420.379046</v>
       </c>
     </row>
     <row r="377">
@@ -4580,10 +4580,10 @@
         <v>1.125</v>
       </c>
       <c r="B377" t="n">
-        <v>2032.499832693079</v>
+        <v>1776.05458074464</v>
       </c>
       <c r="C377" t="n">
-        <v>2032499832.693079</v>
+        <v>1776054580.74464</v>
       </c>
     </row>
     <row r="378">
@@ -4591,10 +4591,10 @@
         <v>1.13</v>
       </c>
       <c r="B378" t="n">
-        <v>2033.732692391872</v>
+        <v>1777.224308391393</v>
       </c>
       <c r="C378" t="n">
-        <v>2033732692.391872</v>
+        <v>1777224308.391393</v>
       </c>
     </row>
     <row r="379">
@@ -4602,10 +4602,10 @@
         <v>1.135</v>
       </c>
       <c r="B379" t="n">
-        <v>2034.960852338466</v>
+        <v>1778.3896395472</v>
       </c>
       <c r="C379" t="n">
-        <v>2034960852.338466</v>
+        <v>1778389639.5472</v>
       </c>
     </row>
     <row r="380">
@@ -4613,10 +4613,10 @@
         <v>1.14</v>
       </c>
       <c r="B380" t="n">
-        <v>2036.184351032682</v>
+        <v>1779.550609985954</v>
       </c>
       <c r="C380" t="n">
-        <v>2036184351.032682</v>
+        <v>1779550609.985954</v>
       </c>
     </row>
     <row r="381">
@@ -4624,10 +4624,10 @@
         <v>1.145</v>
       </c>
       <c r="B381" t="n">
-        <v>2037.403226491807</v>
+        <v>1780.7072550352</v>
       </c>
       <c r="C381" t="n">
-        <v>2037403226.491807</v>
+        <v>1780707255.0352</v>
       </c>
     </row>
     <row r="382">
@@ -4635,10 +4635,10 @@
         <v>1.15</v>
       </c>
       <c r="B382" t="n">
-        <v>2038.617516258723</v>
+        <v>1781.85960958362</v>
       </c>
       <c r="C382" t="n">
-        <v>2038617516.258723</v>
+        <v>1781859609.58362</v>
       </c>
     </row>
     <row r="383">
@@ -4646,10 +4646,10 @@
         <v>1.155</v>
       </c>
       <c r="B383" t="n">
-        <v>2039.827257409857</v>
+        <v>1783.007708088369</v>
       </c>
       <c r="C383" t="n">
-        <v>2039827257.409857</v>
+        <v>1783007708.088369</v>
       </c>
     </row>
     <row r="384">
@@ -4657,10 +4657,10 @@
         <v>1.16</v>
       </c>
       <c r="B384" t="n">
-        <v>2041.032486562966</v>
+        <v>1784.15158458225</v>
       </c>
       <c r="C384" t="n">
-        <v>2041032486.562966</v>
+        <v>1784151584.58225</v>
       </c>
     </row>
     <row r="385">
@@ -4668,10 +4668,10 @@
         <v>1.165</v>
       </c>
       <c r="B385" t="n">
-        <v>2042.233239884759</v>
+        <v>1785.291272680743</v>
       </c>
       <c r="C385" t="n">
-        <v>2042233239.884759</v>
+        <v>1785291272.680743</v>
       </c>
     </row>
     <row r="386">
@@ -4679,10 +4679,10 @@
         <v>1.17</v>
       </c>
       <c r="B386" t="n">
-        <v>2043.429553098366</v>
+        <v>1786.426805588891</v>
       </c>
       <c r="C386" t="n">
-        <v>2043429553.098366</v>
+        <v>1786426805.588891</v>
       </c>
     </row>
     <row r="387">
@@ -4690,10 +4690,10 @@
         <v>1.175</v>
       </c>
       <c r="B387" t="n">
-        <v>2044.621461490644</v>
+        <v>1787.558216108033</v>
       </c>
       <c r="C387" t="n">
-        <v>2044621461.490644</v>
+        <v>1787558216.108033</v>
       </c>
     </row>
     <row r="388">
@@ -4701,10 +4701,10 @@
         <v>1.18</v>
       </c>
       <c r="B388" t="n">
-        <v>2045.808999919334</v>
+        <v>1788.685536642414</v>
       </c>
       <c r="C388" t="n">
-        <v>2045808999.919334</v>
+        <v>1788685536.642414</v>
       </c>
     </row>
     <row r="389">
@@ -4712,10 +4712,10 @@
         <v>1.185</v>
       </c>
       <c r="B389" t="n">
-        <v>2046.992202820074</v>
+        <v>1789.808799205642</v>
       </c>
       <c r="C389" t="n">
-        <v>2046992202.820074</v>
+        <v>1789808799.205642</v>
       </c>
     </row>
     <row r="390">
@@ -4723,10 +4723,10 @@
         <v>1.19</v>
       </c>
       <c r="B390" t="n">
-        <v>2048.171104213267</v>
+        <v>1790.928035427029</v>
       </c>
       <c r="C390" t="n">
-        <v>2048171104.213267</v>
+        <v>1790928035.427029</v>
       </c>
     </row>
     <row r="391">
@@ -4734,10 +4734,10 @@
         <v>1.195</v>
       </c>
       <c r="B391" t="n">
-        <v>2049.345737710809</v>
+        <v>1792.043276557792</v>
       </c>
       <c r="C391" t="n">
-        <v>2049345737.710809</v>
+        <v>1792043276.557792</v>
       </c>
     </row>
     <row r="392">
@@ -4745,10 +4745,10 @@
         <v>1.2</v>
       </c>
       <c r="B392" t="n">
-        <v>2050.516136522676</v>
+        <v>1793.154553477131</v>
       </c>
       <c r="C392" t="n">
-        <v>2050516136.522676</v>
+        <v>1793154553.477131</v>
       </c>
     </row>
     <row r="393">
@@ -4756,10 +4756,10 @@
         <v>1.205</v>
       </c>
       <c r="B393" t="n">
-        <v>2051.682333463385</v>
+        <v>1794.261896698191</v>
       </c>
       <c r="C393" t="n">
-        <v>2051682333.463386</v>
+        <v>1794261896.698191</v>
       </c>
     </row>
     <row r="394">
@@ -4767,10 +4767,10 @@
         <v>1.21</v>
       </c>
       <c r="B394" t="n">
-        <v>2052.844360958322</v>
+        <v>1795.365336373894</v>
       </c>
       <c r="C394" t="n">
-        <v>2052844360.958322</v>
+        <v>1795365336.373894</v>
       </c>
     </row>
     <row r="395">
@@ -4778,10 +4778,10 @@
         <v>1.215</v>
       </c>
       <c r="B395" t="n">
-        <v>2054.002251049938</v>
+        <v>1796.464902302663</v>
       </c>
       <c r="C395" t="n">
-        <v>2054002251.049938</v>
+        <v>1796464902.302663</v>
       </c>
     </row>
     <row r="396">
@@ -4789,10 +4789,10 @@
         <v>1.22</v>
       </c>
       <c r="B396" t="n">
-        <v>2055.156035403832</v>
+        <v>1797.560623934025</v>
       </c>
       <c r="C396" t="n">
-        <v>2055156035.403832</v>
+        <v>1797560623.934025</v>
       </c>
     </row>
     <row r="397">
@@ -4800,10 +4800,10 @@
         <v>1.225</v>
       </c>
       <c r="B397" t="n">
-        <v>2056.305745314701</v>
+        <v>1798.652530374106</v>
       </c>
       <c r="C397" t="n">
-        <v>2056305745.314701</v>
+        <v>1798652530.374106</v>
       </c>
     </row>
     <row r="398">
@@ -4811,10 +4811,10 @@
         <v>1.23</v>
       </c>
       <c r="B398" t="n">
-        <v>2057.451411712182</v>
+        <v>1799.740650391024</v>
       </c>
       <c r="C398" t="n">
-        <v>2057451411.712182</v>
+        <v>1799740650.391024</v>
       </c>
     </row>
     <row r="399">
@@ -4822,10 +4822,10 @@
         <v>1.235</v>
       </c>
       <c r="B399" t="n">
-        <v>2058.59306516657</v>
+        <v>1800.825012420158</v>
       </c>
       <c r="C399" t="n">
-        <v>2058593065.16657</v>
+        <v>1800825012.420158</v>
       </c>
     </row>
     <row r="400">
@@ -4833,10 +4833,10 @@
         <v>1.24</v>
       </c>
       <c r="B400" t="n">
-        <v>2059.730735894436</v>
+        <v>1801.905644569337</v>
       </c>
       <c r="C400" t="n">
-        <v>2059730735.894436</v>
+        <v>1801905644.569337</v>
       </c>
     </row>
     <row r="401">
@@ -4844,10 +4844,10 @@
         <v>1.245</v>
       </c>
       <c r="B401" t="n">
-        <v>2060.864453764116</v>
+        <v>1802.982574623909</v>
       </c>
       <c r="C401" t="n">
-        <v>2060864453.764116</v>
+        <v>1802982574.623909</v>
       </c>
     </row>
     <row r="402">
@@ -4855,10 +4855,10 @@
         <v>1.25</v>
       </c>
       <c r="B402" t="n">
-        <v>2061.994248301114</v>
+        <v>1804.055830051717</v>
       </c>
       <c r="C402" t="n">
-        <v>2061994248.301114</v>
+        <v>1804055830.051717</v>
       </c>
     </row>
     <row r="403">
@@ -4866,10 +4866,10 @@
         <v>1.255</v>
       </c>
       <c r="B403" t="n">
-        <v>2063.120148693386</v>
+        <v>1805.125438007987</v>
       </c>
       <c r="C403" t="n">
-        <v>2063120148.693386</v>
+        <v>1805125438.007987</v>
       </c>
     </row>
     <row r="404">
@@ -4877,10 +4877,10 @@
         <v>1.26</v>
       </c>
       <c r="B404" t="n">
-        <v>2064.242183796526</v>
+        <v>1806.191425340108</v>
       </c>
       <c r="C404" t="n">
-        <v>2064242183.796526</v>
+        <v>1806191425.340108</v>
       </c>
     </row>
     <row r="405">
@@ -4888,10 +4888,10 @@
         <v>1.265</v>
       </c>
       <c r="B405" t="n">
-        <v>2065.360382138853</v>
+        <v>1807.25381859233</v>
       </c>
       <c r="C405" t="n">
-        <v>2065360382.138853</v>
+        <v>1807253818.59233</v>
       </c>
     </row>
     <row r="406">
@@ -4899,10 +4899,10 @@
         <v>1.27</v>
       </c>
       <c r="B406" t="n">
-        <v>2066.474771926399</v>
+        <v>1808.312644010368</v>
       </c>
       <c r="C406" t="n">
-        <v>2066474771.926399</v>
+        <v>1808312644.010368</v>
       </c>
     </row>
     <row r="407">
@@ -4910,10 +4910,10 @@
         <v>1.275</v>
       </c>
       <c r="B407" t="n">
-        <v>2067.585381047802</v>
+        <v>1809.367927545919</v>
       </c>
       <c r="C407" t="n">
-        <v>2067585381.047802</v>
+        <v>1809367927.545918</v>
       </c>
     </row>
     <row r="408">
@@ -4921,10 +4921,10 @@
         <v>1.28</v>
       </c>
       <c r="B408" t="n">
-        <v>2068.692237079109</v>
+        <v>1810.419694861094</v>
       </c>
       <c r="C408" t="n">
-        <v>2068692237.079109</v>
+        <v>1810419694.861094</v>
       </c>
     </row>
     <row r="409">
@@ -4932,10 +4932,10 @@
         <v>1.285</v>
       </c>
       <c r="B409" t="n">
-        <v>2069.795367288478</v>
+        <v>1811.467971332767</v>
       </c>
       <c r="C409" t="n">
-        <v>2069795367.288478</v>
+        <v>1811467971.332767</v>
       </c>
     </row>
     <row r="410">
@@ -4943,10 +4943,10 @@
         <v>1.29</v>
       </c>
       <c r="B410" t="n">
-        <v>2070.894798640807</v>
+        <v>1812.512782056837</v>
       </c>
       <c r="C410" t="n">
-        <v>2070894798.640807</v>
+        <v>1812512782.056837</v>
       </c>
     </row>
     <row r="411">
@@ -4954,10 +4954,10 @@
         <v>1.295</v>
       </c>
       <c r="B411" t="n">
-        <v>2071.990557802261</v>
+        <v>1813.554151852417</v>
       </c>
       <c r="C411" t="n">
-        <v>2071990557.802261</v>
+        <v>1813554151.852417</v>
       </c>
     </row>
     <row r="412">
@@ -4965,10 +4965,10 @@
         <v>1.3</v>
       </c>
       <c r="B412" t="n">
-        <v>2073.082671144721</v>
+        <v>1814.592105265941</v>
       </c>
       <c r="C412" t="n">
-        <v>2073082671.144721</v>
+        <v>1814592105.265941</v>
       </c>
     </row>
     <row r="413">
@@ -4976,10 +4976,10 @@
         <v>1.305</v>
       </c>
       <c r="B413" t="n">
-        <v>2074.17116475015</v>
+        <v>1815.626666575193</v>
       </c>
       <c r="C413" t="n">
-        <v>2074171164.75015</v>
+        <v>1815626666.575192</v>
       </c>
     </row>
     <row r="414">
@@ -4987,10 +4987,10 @@
         <v>1.31</v>
       </c>
       <c r="B414" t="n">
-        <v>2075.256064414878</v>
+        <v>1816.657859793264</v>
       </c>
       <c r="C414" t="n">
-        <v>2075256064.414878</v>
+        <v>1816657859.793264</v>
       </c>
     </row>
     <row r="415">
@@ -4998,10 +4998,10 @@
         <v>1.315</v>
       </c>
       <c r="B415" t="n">
-        <v>2076.337395653806</v>
+        <v>1817.685708672438</v>
       </c>
       <c r="C415" t="n">
-        <v>2076337395.653806</v>
+        <v>1817685708.672438</v>
       </c>
     </row>
     <row r="416">
@@ -5009,10 +5009,10 @@
         <v>1.32</v>
       </c>
       <c r="B416" t="n">
-        <v>2077.415183704529</v>
+        <v>1818.710236708</v>
       </c>
       <c r="C416" t="n">
-        <v>2077415183.704529</v>
+        <v>1818710236.708</v>
       </c>
     </row>
     <row r="417">
@@ -5020,10 +5020,10 @@
         <v>1.325</v>
       </c>
       <c r="B417" t="n">
-        <v>2078.489453531394</v>
+        <v>1819.731467141977</v>
       </c>
       <c r="C417" t="n">
-        <v>2078489453.531394</v>
+        <v>1819731467.141977</v>
       </c>
     </row>
     <row r="418">
@@ -5031,10 +5031,10 @@
         <v>1.33</v>
       </c>
       <c r="B418" t="n">
-        <v>2079.560229829471</v>
+        <v>1820.749422966815</v>
       </c>
       <c r="C418" t="n">
-        <v>2079560229.829471</v>
+        <v>1820749422.966815</v>
       </c>
     </row>
     <row r="419">
@@ -5042,10 +5042,10 @@
         <v>1.335</v>
       </c>
       <c r="B419" t="n">
-        <v>2080.627537028459</v>
+        <v>1821.764126928984</v>
       </c>
       <c r="C419" t="n">
-        <v>2080627537.028459</v>
+        <v>1821764126.928984</v>
       </c>
     </row>
     <row r="420">
@@ -5053,10 +5053,10 @@
         <v>1.34</v>
       </c>
       <c r="B420" t="n">
-        <v>2081.691399296521</v>
+        <v>1822.775601532518</v>
       </c>
       <c r="C420" t="n">
-        <v>2081691399.29652</v>
+        <v>1822775601.532518</v>
       </c>
     </row>
     <row r="421">
@@ -5064,10 +5064,10 @@
         <v>1.345</v>
       </c>
       <c r="B421" t="n">
-        <v>2082.751840544045</v>
+        <v>1823.783869042491</v>
       </c>
       <c r="C421" t="n">
-        <v>2082751840.544045</v>
+        <v>1823783869.042491</v>
       </c>
     </row>
     <row r="422">
@@ -5075,10 +5075,10 @@
         <v>1.35</v>
       </c>
       <c r="B422" t="n">
-        <v>2083.808884427342</v>
+        <v>1824.788951488438</v>
       </c>
       <c r="C422" t="n">
-        <v>2083808884.427342</v>
+        <v>1824788951.488438</v>
       </c>
     </row>
     <row r="423">
@@ -5086,10 +5086,10 @@
         <v>1.355</v>
       </c>
       <c r="B423" t="n">
-        <v>2084.862554352273</v>
+        <v>1825.790870667698</v>
       </c>
       <c r="C423" t="n">
-        <v>2084862554.352273</v>
+        <v>1825790870.667698</v>
       </c>
     </row>
     <row r="424">
@@ -5097,10 +5097,10 @@
         <v>1.36</v>
       </c>
       <c r="B424" t="n">
-        <v>2085.912873477817</v>
+        <v>1826.789648148717</v>
       </c>
       <c r="C424" t="n">
-        <v>2085912873.477817</v>
+        <v>1826789648.148717</v>
       </c>
     </row>
     <row r="425">
@@ -5108,10 +5108,10 @@
         <v>1.365</v>
       </c>
       <c r="B425" t="n">
-        <v>2086.959864719568</v>
+        <v>1827.785305274276</v>
       </c>
       <c r="C425" t="n">
-        <v>2086959864.719568</v>
+        <v>1827785305.274276</v>
       </c>
     </row>
     <row r="426">
@@ -5119,10 +5119,10 @@
         <v>1.37</v>
       </c>
       <c r="B426" t="n">
-        <v>2088.003550753176</v>
+        <v>1828.777863164673</v>
       </c>
       <c r="C426" t="n">
-        <v>2088003550.753176</v>
+        <v>1828777863.164673</v>
       </c>
     </row>
     <row r="427">
@@ -5130,10 +5130,10 @@
         <v>1.375</v>
       </c>
       <c r="B427" t="n">
-        <v>2089.043954017722</v>
+        <v>1829.767342720841</v>
       </c>
       <c r="C427" t="n">
-        <v>2089043954.017722</v>
+        <v>1829767342.720841</v>
       </c>
     </row>
     <row r="428">
@@ -5141,10 +5141,10 @@
         <v>1.38</v>
       </c>
       <c r="B428" t="n">
-        <v>2090.08109671904</v>
+        <v>1830.753764627415</v>
       </c>
       <c r="C428" t="n">
-        <v>2090081096.71904</v>
+        <v>1830753764.627415</v>
       </c>
     </row>
     <row r="429">
@@ -5152,10 +5152,10 @@
         <v>1.385</v>
       </c>
       <c r="B429" t="n">
-        <v>2091.115000832971</v>
+        <v>1831.737149355749</v>
       </c>
       <c r="C429" t="n">
-        <v>2091115000.832971</v>
+        <v>1831737149.355749</v>
       </c>
     </row>
     <row r="430">
@@ -5163,10 +5163,10 @@
         <v>1.39</v>
       </c>
       <c r="B430" t="n">
-        <v>2092.145688108571</v>
+        <v>1832.717517166866</v>
       </c>
       <c r="C430" t="n">
-        <v>2092145688.108572</v>
+        <v>1832717517.166866</v>
       </c>
     </row>
     <row r="431">
@@ -5174,10 +5174,10 @@
         <v>1.395</v>
       </c>
       <c r="B431" t="n">
-        <v>2093.173180071254</v>
+        <v>1833.694888114376</v>
       </c>
       <c r="C431" t="n">
-        <v>2093173180.071254</v>
+        <v>1833694888.114376</v>
       </c>
     </row>
     <row r="432">
@@ -5185,10 +5185,10 @@
         <v>1.4</v>
       </c>
       <c r="B432" t="n">
-        <v>2094.197498025885</v>
+        <v>1834.669282047328</v>
       </c>
       <c r="C432" t="n">
-        <v>2094197498.025885</v>
+        <v>1834669282.047328</v>
       </c>
     </row>
     <row r="433">
@@ -5196,10 +5196,10 @@
         <v>1.405</v>
       </c>
       <c r="B433" t="n">
-        <v>2095.218663059816</v>
+        <v>1835.640718613021</v>
       </c>
       <c r="C433" t="n">
-        <v>2095218663.059816</v>
+        <v>1835640718.613021</v>
       </c>
     </row>
     <row r="434">
@@ -5207,10 +5207,10 @@
         <v>1.41</v>
       </c>
       <c r="B434" t="n">
-        <v>2096.236696045876</v>
+        <v>1836.609217259763</v>
       </c>
       <c r="C434" t="n">
-        <v>2096236696.045876</v>
+        <v>1836609217.259763</v>
       </c>
     </row>
     <row r="435">
@@ -5218,10 +5218,10 @@
         <v>1.415</v>
       </c>
       <c r="B435" t="n">
-        <v>2097.251617645301</v>
+        <v>1837.574797239585</v>
       </c>
       <c r="C435" t="n">
-        <v>2097251617.645301</v>
+        <v>1837574797.239585</v>
       </c>
     </row>
     <row r="436">
@@ -5229,10 +5229,10 @@
         <v>1.42</v>
       </c>
       <c r="B436" t="n">
-        <v>2098.26344831062</v>
+        <v>1838.537477610902</v>
       </c>
       <c r="C436" t="n">
-        <v>2098263448.31062</v>
+        <v>1838537477.610902</v>
       </c>
     </row>
     <row r="437">
@@ -5240,10 +5240,10 @@
         <v>1.425</v>
       </c>
       <c r="B437" t="n">
-        <v>2099.272208288489</v>
+        <v>1839.497277241143</v>
       </c>
       <c r="C437" t="n">
-        <v>2099272208.288489</v>
+        <v>1839497277.241143</v>
       </c>
     </row>
     <row r="438">
@@ -5251,10 +5251,10 @@
         <v>1.43</v>
       </c>
       <c r="B438" t="n">
-        <v>2100.277917622475</v>
+        <v>1840.454214809317</v>
       </c>
       <c r="C438" t="n">
-        <v>2100277917.622475</v>
+        <v>1840454214.809317</v>
       </c>
     </row>
     <row r="439">
@@ -5262,10 +5262,10 @@
         <v>1.435</v>
       </c>
       <c r="B439" t="n">
-        <v>2101.280596155802</v>
+        <v>1841.408308808553</v>
       </c>
       <c r="C439" t="n">
-        <v>2101280596.155802</v>
+        <v>1841408308.808553</v>
       </c>
     </row>
     <row r="440">
@@ -5273,10 +5273,10 @@
         <v>1.44</v>
       </c>
       <c r="B440" t="n">
-        <v>2102.280263534034</v>
+        <v>1842.359577548587</v>
       </c>
       <c r="C440" t="n">
-        <v>2102280263.534034</v>
+        <v>1842359577.548587</v>
       </c>
     </row>
     <row r="441">
@@ -5284,10 +5284,10 @@
         <v>1.445</v>
       </c>
       <c r="B441" t="n">
-        <v>2103.276939207729</v>
+        <v>1843.30803915821</v>
       </c>
       <c r="C441" t="n">
-        <v>2103276939.207729</v>
+        <v>1843308039.15821</v>
       </c>
     </row>
     <row r="442">
@@ -5295,10 +5295,10 @@
         <v>1.45</v>
       </c>
       <c r="B442" t="n">
-        <v>2104.270642435042</v>
+        <v>1844.253711587674</v>
       </c>
       <c r="C442" t="n">
-        <v>2104270642.435042</v>
+        <v>1844253711.587674</v>
       </c>
     </row>
     <row r="443">
@@ -5306,10 +5306,10 @@
         <v>1.455</v>
       </c>
       <c r="B443" t="n">
-        <v>2105.261392284277</v>
+        <v>1845.196612611061</v>
       </c>
       <c r="C443" t="n">
-        <v>2105261392.284277</v>
+        <v>1845196612.611061</v>
       </c>
     </row>
     <row r="444">
@@ -5317,10 +5317,10 @@
         <v>1.46</v>
       </c>
       <c r="B444" t="n">
-        <v>2106.249207636413</v>
+        <v>1846.136759828609</v>
       </c>
       <c r="C444" t="n">
-        <v>2106249207.636413</v>
+        <v>1846136759.828609</v>
       </c>
     </row>
     <row r="445">
@@ -5328,10 +5328,10 @@
         <v>1.465</v>
       </c>
       <c r="B445" t="n">
-        <v>2107.234107187572</v>
+        <v>1847.074170669</v>
       </c>
       <c r="C445" t="n">
-        <v>2107234107.187572</v>
+        <v>1847074170.669</v>
       </c>
     </row>
     <row r="446">
@@ -5339,10 +5339,10 @@
         <v>1.47</v>
       </c>
       <c r="B446" t="n">
-        <v>2108.216109451453</v>
+        <v>1848.008862391614</v>
       </c>
       <c r="C446" t="n">
-        <v>2108216109.451453</v>
+        <v>1848008862.391614</v>
       </c>
     </row>
     <row r="447">
@@ -5350,10 +5350,10 @@
         <v>1.475</v>
       </c>
       <c r="B447" t="n">
-        <v>2109.195232761732</v>
+        <v>1848.940852088739</v>
       </c>
       <c r="C447" t="n">
-        <v>2109195232.761732</v>
+        <v>1848940852.088739</v>
       </c>
     </row>
     <row r="448">
@@ -5361,10 +5361,10 @@
         <v>1.48</v>
       </c>
       <c r="B448" t="n">
-        <v>2110.171495274405</v>
+        <v>1849.870156687752</v>
       </c>
       <c r="C448" t="n">
-        <v>2110171495.274405</v>
+        <v>1849870156.687752</v>
       </c>
     </row>
     <row r="449">
@@ -5372,10 +5372,10 @@
         <v>1.485</v>
       </c>
       <c r="B449" t="n">
-        <v>2111.144914970113</v>
+        <v>1850.796792953256</v>
       </c>
       <c r="C449" t="n">
-        <v>2111144914.970114</v>
+        <v>1850796792.953257</v>
       </c>
     </row>
     <row r="450">
@@ -5383,10 +5383,10 @@
         <v>1.49</v>
       </c>
       <c r="B450" t="n">
-        <v>2112.115509656417</v>
+        <v>1851.720777489195</v>
       </c>
       <c r="C450" t="n">
-        <v>2112115509.656417</v>
+        <v>1851720777.489195</v>
       </c>
     </row>
     <row r="451">
@@ -5394,10 +5394,10 @@
         <v>1.495</v>
       </c>
       <c r="B451" t="n">
-        <v>2113.083296970033</v>
+        <v>1852.642126740917</v>
       </c>
       <c r="C451" t="n">
-        <v>2113083296.970033</v>
+        <v>1852642126.740917</v>
       </c>
     </row>
     <row r="452">
@@ -5405,10 +5405,10 @@
         <v>1.5</v>
       </c>
       <c r="B452" t="n">
-        <v>2114.048294379045</v>
+        <v>1853.560856997222</v>
       </c>
       <c r="C452" t="n">
-        <v>2114048294.379045</v>
+        <v>1853560856.997222</v>
       </c>
     </row>
     <row r="453">
@@ -5416,10 +5416,10 @@
         <v>1.505</v>
       </c>
       <c r="B453" t="n">
-        <v>2115.010519185066</v>
+        <v>1854.476984392362</v>
       </c>
       <c r="C453" t="n">
-        <v>2115010519.185066</v>
+        <v>1854476984.392362</v>
       </c>
     </row>
     <row r="454">
@@ -5427,10 +5427,10 @@
         <v>1.51</v>
       </c>
       <c r="B454" t="n">
-        <v>2115.969988525375</v>
+        <v>1855.390524908019</v>
       </c>
       <c r="C454" t="n">
-        <v>2115969988.525375</v>
+        <v>1855390524.908019</v>
       </c>
     </row>
     <row r="455">
@@ -5438,10 +5438,10 @@
         <v>1.515</v>
       </c>
       <c r="B455" t="n">
-        <v>2116.926719375017</v>
+        <v>1856.301494375243</v>
       </c>
       <c r="C455" t="n">
-        <v>2116926719.375016</v>
+        <v>1856301494.375242</v>
       </c>
     </row>
     <row r="456">
@@ -5449,10 +5449,10 @@
         <v>1.52</v>
       </c>
       <c r="B456" t="n">
-        <v>2117.880728548862</v>
+        <v>1857.209908476369</v>
       </c>
       <c r="C456" t="n">
-        <v>2117880728.548862</v>
+        <v>1857209908.476369</v>
       </c>
     </row>
     <row r="457">
@@ -5460,10 +5460,10 @@
         <v>1.525</v>
       </c>
       <c r="B457" t="n">
-        <v>2118.832032703647</v>
+        <v>1858.115782746894</v>
       </c>
       <c r="C457" t="n">
-        <v>2118832032.703647</v>
+        <v>1858115782.746893</v>
       </c>
     </row>
     <row r="458">
@@ -5471,10 +5471,10 @@
         <v>1.53</v>
       </c>
       <c r="B458" t="n">
-        <v>2119.78064833997</v>
+        <v>1859.019132577327</v>
       </c>
       <c r="C458" t="n">
-        <v>2119780648.339969</v>
+        <v>1859019132.577327</v>
       </c>
     </row>
     <row r="459">
@@ -5482,10 +5482,10 @@
         <v>1.535</v>
       </c>
       <c r="B459" t="n">
-        <v>2120.726591804257</v>
+        <v>1859.919973215014</v>
       </c>
       <c r="C459" t="n">
-        <v>2120726591.804257</v>
+        <v>1859919973.215014</v>
       </c>
     </row>
     <row r="460">
@@ -5493,10 +5493,10 @@
         <v>1.54</v>
       </c>
       <c r="B460" t="n">
-        <v>2121.669879290705</v>
+        <v>1860.818319765928</v>
       </c>
       <c r="C460" t="n">
-        <v>2121669879.290704</v>
+        <v>1860818319.765928</v>
       </c>
     </row>
     <row r="461">
@@ -5504,10 +5504,10 @@
         <v>1.545</v>
       </c>
       <c r="B461" t="n">
-        <v>2122.610526843183</v>
+        <v>1861.714187196437</v>
       </c>
       <c r="C461" t="n">
-        <v>2122610526.843183</v>
+        <v>1861714187.196437</v>
       </c>
     </row>
     <row r="462">
@@ -5515,10 +5515,10 @@
         <v>1.55</v>
       </c>
       <c r="B462" t="n">
-        <v>2123.548550357113</v>
+        <v>1862.607590335037</v>
       </c>
       <c r="C462" t="n">
-        <v>2123548550.357113</v>
+        <v>1862607590.335037</v>
       </c>
     </row>
     <row r="463">
@@ -5526,10 +5526,10 @@
         <v>1.555</v>
       </c>
       <c r="B463" t="n">
-        <v>2124.483965581315</v>
+        <v>1863.498543874066</v>
       </c>
       <c r="C463" t="n">
-        <v>2124483965.581315</v>
+        <v>1863498543.874066</v>
       </c>
     </row>
     <row r="464">
@@ -5537,10 +5537,10 @@
         <v>1.56</v>
       </c>
       <c r="B464" t="n">
-        <v>2125.416788119825</v>
+        <v>1864.387062371383</v>
       </c>
       <c r="C464" t="n">
-        <v>2125416788.119825</v>
+        <v>1864387062.371383</v>
       </c>
     </row>
     <row r="465">
@@ -5548,10 +5548,10 @@
         <v>1.565</v>
       </c>
       <c r="B465" t="n">
-        <v>2126.347033433686</v>
+        <v>1865.27316025203</v>
       </c>
       <c r="C465" t="n">
-        <v>2126347033.433686</v>
+        <v>1865273160.25203</v>
       </c>
     </row>
     <row r="466">
@@ -5559,10 +5559,10 @@
         <v>1.57</v>
       </c>
       <c r="B466" t="n">
-        <v>2127.274716842711</v>
+        <v>1866.156851809859</v>
       </c>
       <c r="C466" t="n">
-        <v>2127274716.842711</v>
+        <v>1866156851.809859</v>
       </c>
     </row>
     <row r="467">
@@ -5570,10 +5570,10 @@
         <v>1.575</v>
       </c>
       <c r="B467" t="n">
-        <v>2128.199853527219</v>
+        <v>1867.038151209141</v>
       </c>
       <c r="C467" t="n">
-        <v>2128199853.527219</v>
+        <v>1867038151.209141</v>
       </c>
     </row>
     <row r="468">
@@ -5581,10 +5581,10 @@
         <v>1.58</v>
       </c>
       <c r="B468" t="n">
-        <v>2129.122458529739</v>
+        <v>1867.917072486148</v>
       </c>
       <c r="C468" t="n">
-        <v>2129122458.529739</v>
+        <v>1867917072.486148</v>
       </c>
     </row>
     <row r="469">
@@ -5592,10 +5592,10 @@
         <v>1.585</v>
       </c>
       <c r="B469" t="n">
-        <v>2130.042546756697</v>
+        <v>1868.79362955071</v>
       </c>
       <c r="C469" t="n">
-        <v>2130042546.756697</v>
+        <v>1868793629.55071</v>
       </c>
     </row>
     <row r="470">
@@ -5603,10 +5603,10 @@
         <v>1.59</v>
       </c>
       <c r="B470" t="n">
-        <v>2130.960132980069</v>
+        <v>1869.667836187746</v>
       </c>
       <c r="C470" t="n">
-        <v>2130960132.980069</v>
+        <v>1869667836.187746</v>
       </c>
     </row>
     <row r="471">
@@ -5614,10 +5614,10 @@
         <v>1.595</v>
       </c>
       <c r="B471" t="n">
-        <v>2131.875231839016</v>
+        <v>1870.539706058777</v>
       </c>
       <c r="C471" t="n">
-        <v>2131875231.839016</v>
+        <v>1870539706.058778</v>
       </c>
     </row>
     <row r="472">
@@ -5625,10 +5625,10 @@
         <v>1.6</v>
       </c>
       <c r="B472" t="n">
-        <v>2132.787857841483</v>
+        <v>1871.409252703415</v>
       </c>
       <c r="C472" t="n">
-        <v>2132787857.841483</v>
+        <v>1871409252.703415</v>
       </c>
     </row>
     <row r="473">
@@ -5636,10 +5636,10 @@
         <v>1.605</v>
       </c>
       <c r="B473" t="n">
-        <v>2133.698025365791</v>
+        <v>1872.276489540823</v>
       </c>
       <c r="C473" t="n">
-        <v>2133698025.365791</v>
+        <v>1872276489.540823</v>
       </c>
     </row>
     <row r="474">
@@ -5647,10 +5647,10 @@
         <v>1.61</v>
       </c>
       <c r="B474" t="n">
-        <v>2134.605748662185</v>
+        <v>1873.141429871163</v>
       </c>
       <c r="C474" t="n">
-        <v>2134605748.662185</v>
+        <v>1873141429.871163</v>
       </c>
     </row>
     <row r="475">
@@ -5658,10 +5658,10 @@
         <v>1.615</v>
       </c>
       <c r="B475" t="n">
-        <v>2135.511041854375</v>
+        <v>1874.004086877011</v>
       </c>
       <c r="C475" t="n">
-        <v>2135511041.854375</v>
+        <v>1874004086.877011</v>
       </c>
     </row>
     <row r="476">
@@ -5669,10 +5669,10 @@
         <v>1.62</v>
       </c>
       <c r="B476" t="n">
-        <v>2136.413918941045</v>
+        <v>1874.864473624762</v>
       </c>
       <c r="C476" t="n">
-        <v>2136413918.941045</v>
+        <v>1874864473.624763</v>
       </c>
     </row>
     <row r="477">
@@ -5680,10 +5680,10 @@
         <v>1.625</v>
       </c>
       <c r="B477" t="n">
-        <v>2137.314393797341</v>
+        <v>1875.722603066009</v>
       </c>
       <c r="C477" t="n">
-        <v>2137314393.797341</v>
+        <v>1875722603.066009</v>
       </c>
     </row>
     <row r="478">
@@ -5691,10 +5691,10 @@
         <v>1.63</v>
       </c>
       <c r="B478" t="n">
-        <v>2138.212480176339</v>
+        <v>1876.578488038896</v>
       </c>
       <c r="C478" t="n">
-        <v>2138212480.176339</v>
+        <v>1876578488.038896</v>
       </c>
     </row>
     <row r="479">
@@ -5702,10 +5702,10 @@
         <v>1.635</v>
       </c>
       <c r="B479" t="n">
-        <v>2139.108191710488</v>
+        <v>1877.432141269461</v>
       </c>
       <c r="C479" t="n">
-        <v>2139108191.710488</v>
+        <v>1877432141.26946</v>
       </c>
     </row>
     <row r="480">
@@ -5713,10 +5713,10 @@
         <v>1.64</v>
       </c>
       <c r="B480" t="n">
-        <v>2140.001541913035</v>
+        <v>1878.283575372951</v>
       </c>
       <c r="C480" t="n">
-        <v>2140001541.913035</v>
+        <v>1878283575.372951</v>
       </c>
     </row>
     <row r="481">
@@ -5724,10 +5724,10 @@
         <v>1.645</v>
       </c>
       <c r="B481" t="n">
-        <v>2140.892544179427</v>
+        <v>1879.132802855124</v>
       </c>
       <c r="C481" t="n">
-        <v>2140892544.179427</v>
+        <v>1879132802.855124</v>
       </c>
     </row>
     <row r="482">
@@ -5735,10 +5735,10 @@
         <v>1.65</v>
       </c>
       <c r="B482" t="n">
-        <v>2141.781211788689</v>
+        <v>1879.979836113526</v>
       </c>
       <c r="C482" t="n">
-        <v>2141781211.788689</v>
+        <v>1879979836.113526</v>
       </c>
     </row>
     <row r="483">
@@ -5746,10 +5746,10 @@
         <v>1.655</v>
       </c>
       <c r="B483" t="n">
-        <v>2142.667557904787</v>
+        <v>1880.824687438755</v>
       </c>
       <c r="C483" t="n">
-        <v>2142667557.904787</v>
+        <v>1880824687.438755</v>
       </c>
     </row>
     <row r="484">
@@ -5757,10 +5757,10 @@
         <v>1.66</v>
       </c>
       <c r="B484" t="n">
-        <v>2143.551595577975</v>
+        <v>1881.667369015697</v>
       </c>
       <c r="C484" t="n">
-        <v>2143551595.577975</v>
+        <v>1881667369.015697</v>
       </c>
     </row>
     <row r="485">
@@ -5768,10 +5768,10 @@
         <v>1.665</v>
       </c>
       <c r="B485" t="n">
-        <v>2144.433337746105</v>
+        <v>1882.507892924758</v>
       </c>
       <c r="C485" t="n">
-        <v>2144433337.746105</v>
+        <v>1882507892.924758</v>
       </c>
     </row>
     <row r="486">
@@ -5779,10 +5779,10 @@
         <v>1.67</v>
       </c>
       <c r="B486" t="n">
-        <v>2145.312797235938</v>
+        <v>1883.346271143068</v>
       </c>
       <c r="C486" t="n">
-        <v>2145312797.235938</v>
+        <v>1883346271.143068</v>
       </c>
     </row>
     <row r="487">
@@ -5790,10 +5790,10 @@
         <v>1.675</v>
       </c>
       <c r="B487" t="n">
-        <v>2146.189986764423</v>
+        <v>1884.182515545665</v>
       </c>
       <c r="C487" t="n">
-        <v>2146189986.764423</v>
+        <v>1884182515.545665</v>
       </c>
     </row>
     <row r="488">
@@ -5801,10 +5801,10 @@
         <v>1.68</v>
       </c>
       <c r="B488" t="n">
-        <v>2147.064918939966</v>
+        <v>1885.016637906675</v>
       </c>
       <c r="C488" t="n">
-        <v>2147064918.939966</v>
+        <v>1885016637.906675</v>
       </c>
     </row>
     <row r="489">
@@ -5812,10 +5812,10 @@
         <v>1.685</v>
       </c>
       <c r="B489" t="n">
-        <v>2147.937606263671</v>
+        <v>1885.84864990046</v>
       </c>
       <c r="C489" t="n">
-        <v>2147937606.263671</v>
+        <v>1885848649.90046</v>
       </c>
     </row>
     <row r="490">
@@ -5823,10 +5823,10 @@
         <v>1.69</v>
       </c>
       <c r="B490" t="n">
-        <v>2148.808061130571</v>
+        <v>1886.678563102761</v>
       </c>
       <c r="C490" t="n">
-        <v>2148808061.130571</v>
+        <v>1886678563.102762</v>
       </c>
     </row>
     <row r="491">
@@ -5834,10 +5834,10 @@
         <v>1.695</v>
       </c>
       <c r="B491" t="n">
-        <v>2149.67629583084</v>
+        <v>1887.506388991819</v>
       </c>
       <c r="C491" t="n">
-        <v>2149676295.83084</v>
+        <v>1887506388.991818</v>
       </c>
     </row>
     <row r="492">
@@ -5845,10 +5845,10 @@
         <v>1.7</v>
       </c>
       <c r="B492" t="n">
-        <v>2150.542322550983</v>
+        <v>1888.332138949476</v>
       </c>
       <c r="C492" t="n">
-        <v>2150542322.550983</v>
+        <v>1888332138.949476</v>
       </c>
     </row>
     <row r="493">
@@ -5856,10 +5856,10 @@
         <v>1.71</v>
       </c>
       <c r="B493" t="n">
-        <v>2152.267800285626</v>
+        <v>1889.977456122521</v>
       </c>
       <c r="C493" t="n">
-        <v>2152267800.285626</v>
+        <v>1889977456.122521</v>
       </c>
     </row>
     <row r="494">
@@ -5867,10 +5867,10 @@
         <v>1.72</v>
       </c>
       <c r="B494" t="n">
-        <v>2153.984589797494</v>
+        <v>1891.614603789803</v>
       </c>
       <c r="C494" t="n">
-        <v>2153984589.797494</v>
+        <v>1891614603.789803</v>
       </c>
     </row>
     <row r="495">
@@ -5878,10 +5878,10 @@
         <v>1.73</v>
       </c>
       <c r="B495" t="n">
-        <v>2155.692784964482</v>
+        <v>1893.243669645093</v>
       </c>
       <c r="C495" t="n">
-        <v>2155692784.964482</v>
+        <v>1893243669.645093</v>
       </c>
     </row>
     <row r="496">
@@ -5889,10 +5889,10 @@
         <v>1.74</v>
       </c>
       <c r="B496" t="n">
-        <v>2157.392478114687</v>
+        <v>1894.864739940762</v>
       </c>
       <c r="C496" t="n">
-        <v>2157392478.114687</v>
+        <v>1894864739.940762</v>
       </c>
     </row>
     <row r="497">
@@ -5900,10 +5900,10 @@
         <v>1.75</v>
       </c>
       <c r="B497" t="n">
-        <v>2159.083760060738</v>
+        <v>1896.477899519593</v>
       </c>
       <c r="C497" t="n">
-        <v>2159083760.060738</v>
+        <v>1896477899.519593</v>
       </c>
     </row>
     <row r="498">
@@ -5911,10 +5911,10 @@
         <v>1.76</v>
       </c>
       <c r="B498" t="n">
-        <v>2160.766720133159</v>
+        <v>1898.083231845722</v>
       </c>
       <c r="C498" t="n">
-        <v>2160766720.133159</v>
+        <v>1898083231.845722</v>
       </c>
     </row>
     <row r="499">
@@ -5922,10 +5922,10 @@
         <v>1.77</v>
       </c>
       <c r="B499" t="n">
-        <v>2162.441446212828</v>
+        <v>1899.680819034722</v>
       </c>
       <c r="C499" t="n">
-        <v>2162441446.212828</v>
+        <v>1899680819.034722</v>
       </c>
     </row>
     <row r="500">
@@ -5933,10 +5933,10 @@
         <v>1.78</v>
       </c>
       <c r="B500" t="n">
-        <v>2164.108024762535</v>
+        <v>1901.270741882873</v>
       </c>
       <c r="C500" t="n">
-        <v>2164108024.762535</v>
+        <v>1901270741.882873</v>
       </c>
     </row>
     <row r="501">
@@ -5944,10 +5944,10 @@
         <v>1.79</v>
       </c>
       <c r="B501" t="n">
-        <v>2165.766540857686</v>
+        <v>1902.853079895626</v>
       </c>
       <c r="C501" t="n">
-        <v>2165766540.857686</v>
+        <v>1902853079.895627</v>
       </c>
     </row>
     <row r="502">
@@ -5955,10 +5955,10 @@
         <v>1.8</v>
       </c>
       <c r="B502" t="n">
-        <v>2167.417078216171</v>
+        <v>1904.427911315307</v>
       </c>
       <c r="C502" t="n">
-        <v>2167417078.216171</v>
+        <v>1904427911.315307</v>
       </c>
     </row>
     <row r="503">
@@ -5966,10 +5966,10 @@
         <v>1.81</v>
       </c>
       <c r="B503" t="n">
-        <v>2169.059719227429</v>
+        <v>1905.995313148069</v>
       </c>
       <c r="C503" t="n">
-        <v>2169059719.227429</v>
+        <v>1905995313.148069</v>
       </c>
     </row>
     <row r="504">
@@ -5977,10 +5977,10 @@
         <v>1.82</v>
       </c>
       <c r="B504" t="n">
-        <v>2170.694544980736</v>
+        <v>1907.555361190129</v>
       </c>
       <c r="C504" t="n">
-        <v>2170694544.980736</v>
+        <v>1907555361.190129</v>
       </c>
     </row>
     <row r="505">
@@ -5988,10 +5988,10 @@
         <v>1.83</v>
       </c>
       <c r="B505" t="n">
-        <v>2172.321635292735</v>
+        <v>1909.108130053304</v>
       </c>
       <c r="C505" t="n">
-        <v>2172321635.292735</v>
+        <v>1909108130.053303</v>
       </c>
     </row>
     <row r="506">
@@ -5999,10 +5999,10 @@
         <v>1.84</v>
       </c>
       <c r="B506" t="n">
-        <v>2173.941068734235</v>
+        <v>1910.653693189872</v>
       </c>
       <c r="C506" t="n">
-        <v>2173941068.734235</v>
+        <v>1910653693.189872</v>
       </c>
     </row>
     <row r="507">
@@ -6010,10 +6010,10 @@
         <v>1.85</v>
       </c>
       <c r="B507" t="n">
-        <v>2175.552922656313</v>
+        <v>1912.192122916785</v>
       </c>
       <c r="C507" t="n">
-        <v>2175552922.656313</v>
+        <v>1912192122.916785</v>
       </c>
     </row>
     <row r="508">
@@ -6021,10 +6021,10 @@
         <v>1.86</v>
       </c>
       <c r="B508" t="n">
-        <v>2177.157273215718</v>
+        <v>1913.723490439237</v>
       </c>
       <c r="C508" t="n">
-        <v>2177157273.215718</v>
+        <v>1913723490.439237</v>
       </c>
     </row>
     <row r="509">
@@ -6032,10 +6032,10 @@
         <v>1.87</v>
       </c>
       <c r="B509" t="n">
-        <v>2178.754195399621</v>
+        <v>1915.24786587363</v>
       </c>
       <c r="C509" t="n">
-        <v>2178754195.399621</v>
+        <v>1915247865.87363</v>
       </c>
     </row>
     <row r="510">
@@ -6043,10 +6043,10 @@
         <v>1.88</v>
       </c>
       <c r="B510" t="n">
-        <v>2180.343763049724</v>
+        <v>1916.765318269941</v>
       </c>
       <c r="C510" t="n">
-        <v>2180343763.049724</v>
+        <v>1916765318.269941</v>
       </c>
     </row>
     <row r="511">
@@ -6054,10 +6054,10 @@
         <v>1.89</v>
       </c>
       <c r="B511" t="n">
-        <v>2181.926048885738</v>
+        <v>1918.275915633512</v>
       </c>
       <c r="C511" t="n">
-        <v>2181926048.885738</v>
+        <v>1918275915.633512</v>
       </c>
     </row>
     <row r="512">
@@ -6065,10 +6065,10 @@
         <v>1.9</v>
       </c>
       <c r="B512" t="n">
-        <v>2183.501124528269</v>
+        <v>1919.779724946284</v>
       </c>
       <c r="C512" t="n">
-        <v>2183501124.528269</v>
+        <v>1919779724.946284</v>
       </c>
     </row>
     <row r="513">
@@ -6076,10 +6076,10 @@
         <v>1.91</v>
       </c>
       <c r="B513" t="n">
-        <v>2185.069060521112</v>
+        <v>1921.276812187493</v>
       </c>
       <c r="C513" t="n">
-        <v>2185069060.521112</v>
+        <v>1921276812.187493</v>
       </c>
     </row>
     <row r="514">
@@ -6087,10 +6087,10 @@
         <v>1.92</v>
       </c>
       <c r="B514" t="n">
-        <v>2186.62992635298</v>
+        <v>1922.767242353834</v>
       </c>
       <c r="C514" t="n">
-        <v>2186629926.35298</v>
+        <v>1922767242.353834</v>
       </c>
     </row>
     <row r="515">
@@ -6098,10 +6098,10 @@
         <v>1.93</v>
       </c>
       <c r="B515" t="n">
-        <v>2188.183790478686</v>
+        <v>1924.251079479125</v>
       </c>
       <c r="C515" t="n">
-        <v>2188183790.478686</v>
+        <v>1924251079.479125</v>
       </c>
     </row>
     <row r="516">
@@ -6109,10 +6109,10 @@
         <v>1.94</v>
       </c>
       <c r="B516" t="n">
-        <v>2189.730720339793</v>
+        <v>1925.728386653472</v>
       </c>
       <c r="C516" t="n">
-        <v>2189730720.339793</v>
+        <v>1925728386.653472</v>
       </c>
     </row>
     <row r="517">
@@ -6120,10 +6120,10 @@
         <v>1.95</v>
       </c>
       <c r="B517" t="n">
-        <v>2191.270782384745</v>
+        <v>1927.199226041959</v>
       </c>
       <c r="C517" t="n">
-        <v>2191270782.384746</v>
+        <v>1927199226.041959</v>
       </c>
     </row>
     <row r="518">
@@ -6131,10 +6131,10 @@
         <v>1.96</v>
       </c>
       <c r="B518" t="n">
-        <v>2192.804042088496</v>
+        <v>1928.663658902873</v>
       </c>
       <c r="C518" t="n">
-        <v>2192804042.088496</v>
+        <v>1928663658.902873</v>
       </c>
     </row>
     <row r="519">
@@ -6142,10 +6142,10 @@
         <v>1.97</v>
       </c>
       <c r="B519" t="n">
-        <v>2194.330563971657</v>
+        <v>1930.12174560548</v>
       </c>
       <c r="C519" t="n">
-        <v>2194330563.971657</v>
+        <v>1930121745.60548</v>
       </c>
     </row>
     <row r="520">
@@ -6153,10 +6153,10 @@
         <v>1.98</v>
       </c>
       <c r="B520" t="n">
-        <v>2195.850411619169</v>
+        <v>1931.573545647362</v>
       </c>
       <c r="C520" t="n">
-        <v>2195850411.619169</v>
+        <v>1931573545.647362</v>
       </c>
     </row>
     <row r="521">
@@ -6164,10 +6164,10 @@
         <v>1.99</v>
       </c>
       <c r="B521" t="n">
-        <v>2197.363647698518</v>
+        <v>1933.019117671335</v>
       </c>
       <c r="C521" t="n">
-        <v>2197363647.698518</v>
+        <v>1933019117.671335</v>
       </c>
     </row>
     <row r="522">
@@ -6175,10 +6175,10 @@
         <v>2</v>
       </c>
       <c r="B522" t="n">
-        <v>2198.870333977511</v>
+        <v>1934.458519481949</v>
       </c>
       <c r="C522" t="n">
-        <v>2198870333.97751</v>
+        <v>1934458519.481949</v>
       </c>
     </row>
     <row r="523">
@@ -6186,10 +6186,10 @@
         <v>2.02</v>
       </c>
       <c r="B523" t="n">
-        <v>2201.864299810847</v>
+        <v>1937.319039586213</v>
       </c>
       <c r="C523" t="n">
-        <v>2201864299.810847</v>
+        <v>1937319039.586212</v>
       </c>
     </row>
     <row r="524">
@@ -6197,10 +6197,10 @@
         <v>2.04</v>
       </c>
       <c r="B524" t="n">
-        <v>2204.832785916523</v>
+        <v>1940.155552233608</v>
       </c>
       <c r="C524" t="n">
-        <v>2204832785.916523</v>
+        <v>1940155552.233608</v>
       </c>
     </row>
     <row r="525">
@@ -6208,10 +6208,10 @@
         <v>2.06</v>
       </c>
       <c r="B525" t="n">
-        <v>2207.776255764256</v>
+        <v>1942.968491276659</v>
       </c>
       <c r="C525" t="n">
-        <v>2207776255.764256</v>
+        <v>1942968491.276659</v>
       </c>
     </row>
     <row r="526">
@@ -6219,10 +6219,10 @@
         <v>2.08</v>
       </c>
       <c r="B526" t="n">
-        <v>2210.695159993934</v>
+        <v>1945.75827860939</v>
       </c>
       <c r="C526" t="n">
-        <v>2210695159.993934</v>
+        <v>1945758278.60939</v>
       </c>
     </row>
     <row r="527">
@@ -6230,10 +6230,10 @@
         <v>2.1</v>
       </c>
       <c r="B527" t="n">
-        <v>2213.589936890223</v>
+        <v>1948.525324608284</v>
       </c>
       <c r="C527" t="n">
-        <v>2213589936.890224</v>
+        <v>1948525324.608284</v>
       </c>
     </row>
     <row r="528">
@@ -6241,10 +6241,10 @@
         <v>2.12</v>
       </c>
       <c r="B528" t="n">
-        <v>2216.461012835294</v>
+        <v>1951.270028552951</v>
       </c>
       <c r="C528" t="n">
-        <v>2216461012.835294</v>
+        <v>1951270028.552951</v>
       </c>
     </row>
     <row r="529">
@@ -6252,10 +6252,10 @@
         <v>2.14</v>
       </c>
       <c r="B529" t="n">
-        <v>2219.308802740849</v>
+        <v>1953.992779027624</v>
       </c>
       <c r="C529" t="n">
-        <v>2219308802.740849</v>
+        <v>1953992779.027624</v>
       </c>
     </row>
     <row r="530">
@@ -6263,10 +6263,10 @@
         <v>2.16</v>
       </c>
       <c r="B530" t="n">
-        <v>2222.133710460604</v>
+        <v>1956.693954304526</v>
       </c>
       <c r="C530" t="n">
-        <v>2222133710.460604</v>
+        <v>1956693954.304526</v>
       </c>
     </row>
     <row r="531">
@@ -6274,10 +6274,10 @@
         <v>2.18</v>
       </c>
       <c r="B531" t="n">
-        <v>2224.936129184259</v>
+        <v>1959.37392271009</v>
       </c>
       <c r="C531" t="n">
-        <v>2224936129.184259</v>
+        <v>1959373922.71009</v>
       </c>
     </row>
     <row r="532">
@@ -6285,10 +6285,10 @@
         <v>2.2</v>
       </c>
       <c r="B532" t="n">
-        <v>2227.716441813972</v>
+        <v>1962.033042974945</v>
       </c>
       <c r="C532" t="n">
-        <v>2227716441.813972</v>
+        <v>1962033042.974945</v>
       </c>
     </row>
     <row r="533">
@@ -6296,10 +6296,10 @@
         <v>2.22</v>
       </c>
       <c r="B533" t="n">
-        <v>2230.475021324242</v>
+        <v>1964.671664568525</v>
       </c>
       <c r="C533" t="n">
-        <v>2230475021.324242</v>
+        <v>1964671664.568525</v>
       </c>
     </row>
     <row r="534">
@@ -6307,10 +6307,10 @@
         <v>2.24</v>
       </c>
       <c r="B534" t="n">
-        <v>2233.212231106093</v>
+        <v>1967.290128019117</v>
       </c>
       <c r="C534" t="n">
-        <v>2233212231.106093</v>
+        <v>1967290128.019117</v>
       </c>
     </row>
     <row r="535">
@@ -6318,10 +6318,10 @@
         <v>2.26</v>
       </c>
       <c r="B535" t="n">
-        <v>2235.928425296369</v>
+        <v>1969.8887652201</v>
       </c>
       <c r="C535" t="n">
-        <v>2235928425.296369</v>
+        <v>1969888765.2201</v>
       </c>
     </row>
     <row r="536">
@@ -6329,10 +6329,10 @@
         <v>2.28</v>
       </c>
       <c r="B536" t="n">
-        <v>2238.623949092907</v>
+        <v>1972.467899723086</v>
       </c>
       <c r="C536" t="n">
-        <v>2238623949.092906</v>
+        <v>1972467899.723086</v>
       </c>
     </row>
     <row r="537">
@@ -6340,10 +6340,10 @@
         <v>2.3</v>
       </c>
       <c r="B537" t="n">
-        <v>2241.29913905632</v>
+        <v>1975.027847018637</v>
       </c>
       <c r="C537" t="n">
-        <v>2241299139.05632</v>
+        <v>1975027847.018637</v>
       </c>
     </row>
     <row r="538">
@@ -6351,10 +6351,10 @@
         <v>2.32</v>
       </c>
       <c r="B538" t="n">
-        <v>2243.954323399066</v>
+        <v>1977.568914805185</v>
       </c>
       <c r="C538" t="n">
-        <v>2243954323.399066</v>
+        <v>1977568914.805185</v>
       </c>
     </row>
     <row r="539">
@@ -6362,10 +6362,10 @@
         <v>2.34</v>
       </c>
       <c r="B539" t="n">
-        <v>2246.589822262436</v>
+        <v>1980.091403246748</v>
       </c>
       <c r="C539" t="n">
-        <v>2246589822.262436</v>
+        <v>1980091403.246748</v>
       </c>
     </row>
     <row r="540">
@@ -6373,10 +6373,10 @@
         <v>2.36</v>
       </c>
       <c r="B540" t="n">
-        <v>2249.20594798208</v>
+        <v>1982.595605219999</v>
       </c>
       <c r="C540" t="n">
-        <v>2249205947.98208</v>
+        <v>1982595605.219999</v>
       </c>
     </row>
     <row r="541">
@@ -6384,10 +6384,10 @@
         <v>2.38</v>
       </c>
       <c r="B541" t="n">
-        <v>2251.803005342623</v>
+        <v>1985.081806551221</v>
       </c>
       <c r="C541" t="n">
-        <v>2251803005.342623</v>
+        <v>1985081806.551221</v>
       </c>
     </row>
     <row r="542">
@@ -6395,10 +6395,10 @@
         <v>2.4</v>
       </c>
       <c r="B542" t="n">
-        <v>2254.381291821916</v>
+        <v>1987.550286243631</v>
       </c>
       <c r="C542" t="n">
-        <v>2254381291.821916</v>
+        <v>1987550286.243631</v>
       </c>
     </row>
     <row r="543">
@@ -6406,10 +6406,10 @@
         <v>2.42</v>
       </c>
       <c r="B543" t="n">
-        <v>2256.941097825422</v>
+        <v>1990.001316695554</v>
       </c>
       <c r="C543" t="n">
-        <v>2256941097.825422</v>
+        <v>1990001316.695554</v>
       </c>
     </row>
     <row r="544">
@@ -6417,10 +6417,10 @@
         <v>2.44</v>
       </c>
       <c r="B544" t="n">
-        <v>2259.482706911219</v>
+        <v>1992.435163909876</v>
       </c>
       <c r="C544" t="n">
-        <v>2259482706.911219</v>
+        <v>1992435163.909876</v>
       </c>
     </row>
     <row r="545">
@@ -6428,10 +6428,10 @@
         <v>2.46</v>
       </c>
       <c r="B545" t="n">
-        <v>2262.006396006058</v>
+        <v>1994.852087695204</v>
       </c>
       <c r="C545" t="n">
-        <v>2262006396.006058</v>
+        <v>1994852087.695204</v>
       </c>
     </row>
     <row r="546">
@@ -6439,10 +6439,10 @@
         <v>2.48</v>
       </c>
       <c r="B546" t="n">
-        <v>2264.512435612919</v>
+        <v>1997.252341859114</v>
       </c>
       <c r="C546" t="n">
-        <v>2264512435.612919</v>
+        <v>1997252341.859114</v>
       </c>
     </row>
     <row r="547">
@@ -6450,10 +6450,10 @@
         <v>2.5</v>
       </c>
       <c r="B547" t="n">
-        <v>2267.001090010442</v>
+        <v>1999.636174393876</v>
       </c>
       <c r="C547" t="n">
-        <v>2267001090.010442</v>
+        <v>1999636174.393876</v>
       </c>
     </row>
     <row r="548">
@@ -6461,10 +6461,10 @@
         <v>2.52</v>
       </c>
       <c r="B548" t="n">
-        <v>2269.472617444636</v>
+        <v>2002.003827654984</v>
       </c>
       <c r="C548" t="n">
-        <v>2269472617.444636</v>
+        <v>2002003827.654984</v>
       </c>
     </row>
     <row r="549">
@@ -6472,10 +6472,10 @@
         <v>2.54</v>
       </c>
       <c r="B549" t="n">
-        <v>2271.927270313212</v>
+        <v>2004.355538532844</v>
       </c>
       <c r="C549" t="n">
-        <v>2271927270.313212</v>
+        <v>2004355538.532844</v>
       </c>
     </row>
     <row r="550">
@@ -6483,10 +6483,10 @@
         <v>2.56</v>
       </c>
       <c r="B550" t="n">
-        <v>2274.365295342876</v>
+        <v>2006.691538617928</v>
       </c>
       <c r="C550" t="n">
-        <v>2274365295.342876</v>
+        <v>2006691538.617929</v>
       </c>
     </row>
     <row r="551">
@@ -6494,10 +6494,10 @@
         <v>2.58</v>
       </c>
       <c r="B551" t="n">
-        <v>2276.786933759913</v>
+        <v>2009.012054359683</v>
       </c>
       <c r="C551" t="n">
-        <v>2276786933.759913</v>
+        <v>2009012054.359683</v>
       </c>
     </row>
     <row r="552">
@@ -6505,10 +6505,10 @@
         <v>2.6</v>
       </c>
       <c r="B552" t="n">
-        <v>2279.192421454363</v>
+        <v>2011.317307219492</v>
       </c>
       <c r="C552" t="n">
-        <v>2279192421.454363</v>
+        <v>2011317307.219491</v>
       </c>
     </row>
     <row r="553">
@@ -6516,10 +6516,10 @@
         <v>2.62</v>
       </c>
       <c r="B553" t="n">
-        <v>2281.581989138067</v>
+        <v>2013.607513817939</v>
       </c>
       <c r="C553" t="n">
-        <v>2281581989.138067</v>
+        <v>2013607513.817939</v>
       </c>
     </row>
     <row r="554">
@@ -6527,10 +6527,10 @@
         <v>2.64</v>
       </c>
       <c r="B554" t="n">
-        <v>2283.955862496883</v>
+        <v>2015.882886076649</v>
       </c>
       <c r="C554" t="n">
-        <v>2283955862.496883</v>
+        <v>2015882886.076649</v>
       </c>
     </row>
     <row r="555">
@@ -6538,10 +6538,10 @@
         <v>2.66</v>
       </c>
       <c r="B555" t="n">
-        <v>2286.314262337286</v>
+        <v>2018.143631354921</v>
       </c>
       <c r="C555" t="n">
-        <v>2286314262.337286</v>
+        <v>2018143631.354921</v>
       </c>
     </row>
     <row r="556">
@@ -6549,10 +6549,10 @@
         <v>2.68</v>
       </c>
       <c r="B556" t="n">
-        <v>2288.65740472765</v>
+        <v>2020.389952581401</v>
       </c>
       <c r="C556" t="n">
-        <v>2288657404.72765</v>
+        <v>2020389952.581401</v>
       </c>
     </row>
     <row r="557">
@@ -6560,10 +6560,10 @@
         <v>2.7</v>
       </c>
       <c r="B557" t="n">
-        <v>2290.985501134404</v>
+        <v>2022.622048381004</v>
       </c>
       <c r="C557" t="n">
-        <v>2290985501.134404</v>
+        <v>2022622048.381004</v>
       </c>
     </row>
     <row r="558">
@@ -6571,10 +6571,10 @@
         <v>2.72</v>
       </c>
       <c r="B558" t="n">
-        <v>2293.298758553304</v>
+        <v>2024.840113197286</v>
       </c>
       <c r="C558" t="n">
-        <v>2293298758.553304</v>
+        <v>2024840113.197286</v>
       </c>
     </row>
     <row r="559">
@@ -6582,10 +6582,10 @@
         <v>2.74</v>
       </c>
       <c r="B559" t="n">
-        <v>2295.597379636024</v>
+        <v>2027.044337410466</v>
       </c>
       <c r="C559" t="n">
-        <v>2295597379.636024</v>
+        <v>2027044337.410466</v>
       </c>
     </row>
     <row r="560">
@@ -6593,10 +6593,10 @@
         <v>2.76</v>
       </c>
       <c r="B560" t="n">
-        <v>2297.881562812268</v>
+        <v>2029.234907451286</v>
       </c>
       <c r="C560" t="n">
-        <v>2297881562.812268</v>
+        <v>2029234907.451286</v>
       </c>
     </row>
     <row r="561">
@@ -6604,10 +6604,10 @@
         <v>2.78</v>
       </c>
       <c r="B561" t="n">
-        <v>2300.151502407593</v>
+        <v>2031.412005910879</v>
       </c>
       <c r="C561" t="n">
-        <v>2300151502.407593</v>
+        <v>2031412005.910879</v>
       </c>
     </row>
     <row r="562">
@@ -6615,10 +6615,10 @@
         <v>2.8</v>
       </c>
       <c r="B562" t="n">
-        <v>2302.407388757124</v>
+        <v>2033.57581164681</v>
       </c>
       <c r="C562" t="n">
-        <v>2302407388.757124</v>
+        <v>2033575811.64681</v>
       </c>
     </row>
     <row r="563">
@@ -6626,10 +6626,10 @@
         <v>2.82</v>
       </c>
       <c r="B563" t="n">
-        <v>2304.649408315322</v>
+        <v>2035.726499885463</v>
       </c>
       <c r="C563" t="n">
-        <v>2304649408.315322</v>
+        <v>2035726499.885463</v>
       </c>
     </row>
     <row r="564">
@@ -6637,10 +6637,10 @@
         <v>2.84</v>
       </c>
       <c r="B564" t="n">
-        <v>2306.877743761991</v>
+        <v>2037.864242320911</v>
       </c>
       <c r="C564" t="n">
-        <v>2306877743.761991</v>
+        <v>2037864242.32091</v>
       </c>
     </row>
     <row r="565">
@@ -6648,10 +6648,10 @@
         <v>2.86</v>
       </c>
       <c r="B565" t="n">
-        <v>2309.092574104656</v>
+        <v>2039.989207210415</v>
       </c>
       <c r="C565" t="n">
-        <v>2309092574.104656</v>
+        <v>2039989207.210415</v>
       </c>
     </row>
     <row r="566">
@@ -6659,10 +6659,10 @@
         <v>2.88</v>
       </c>
       <c r="B566" t="n">
-        <v>2311.294074777473</v>
+        <v>2042.101559466704</v>
       </c>
       <c r="C566" t="n">
-        <v>2311294074.777473</v>
+        <v>2042101559.466704</v>
       </c>
     </row>
     <row r="567">
@@ -6670,10 +6670,10 @@
         <v>2.9</v>
       </c>
       <c r="B567" t="n">
-        <v>2313.482417736806</v>
+        <v>2044.201460747146</v>
       </c>
       <c r="C567" t="n">
-        <v>2313482417.736806</v>
+        <v>2044201460.747146</v>
       </c>
     </row>
     <row r="568">
@@ -6681,10 +6681,10 @@
         <v>2.92</v>
       </c>
       <c r="B568" t="n">
-        <v>2315.657771553614</v>
+        <v>2046.289069539948</v>
       </c>
       <c r="C568" t="n">
-        <v>2315657771.553614</v>
+        <v>2046289069.539948</v>
       </c>
     </row>
     <row r="569">
@@ -6692,10 +6692,10 @@
         <v>2.94</v>
       </c>
       <c r="B569" t="n">
-        <v>2317.820301502761</v>
+        <v>2048.364541247503</v>
       </c>
       <c r="C569" t="n">
-        <v>2317820301.502761</v>
+        <v>2048364541.247504</v>
       </c>
     </row>
     <row r="570">
@@ -6703,10 +6703,10 @@
         <v>2.96</v>
       </c>
       <c r="B570" t="n">
-        <v>2319.97016964939</v>
+        <v>2050.42802826699</v>
       </c>
       <c r="C570" t="n">
-        <v>2319970169.64939</v>
+        <v>2050428028.26699</v>
       </c>
     </row>
     <row r="571">
@@ -6714,10 +6714,10 @@
         <v>2.98</v>
       </c>
       <c r="B571" t="n">
-        <v>2322.107534932456</v>
+        <v>2052.479680068341</v>
       </c>
       <c r="C571" t="n">
-        <v>2322107534.932456</v>
+        <v>2052479680.068341</v>
       </c>
     </row>
     <row r="572">
@@ -6725,10 +6725,10 @@
         <v>3</v>
       </c>
       <c r="B572" t="n">
-        <v>2324.232553245551</v>
+        <v>2054.519643269682</v>
       </c>
       <c r="C572" t="n">
-        <v>2324232553.245551</v>
+        <v>2054519643.269682</v>
       </c>
     </row>
   </sheetData>
